--- a/Daniel Akoto - Gantt Chart Individual Project (version 1).xlsb.xlsx
+++ b/Daniel Akoto - Gantt Chart Individual Project (version 1).xlsb.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE44794F-0CBD-41AB-A61C-B2BC52C9DE52}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B700F67-7DD8-4439-A88F-73766FF33061}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="4560" windowWidth="28800" windowHeight="15750" tabRatio="415" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4680" yWindow="4680" windowWidth="28800" windowHeight="15948" tabRatio="415" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="12" r:id="rId1"/>
@@ -30,7 +30,6 @@
     <definedName name="Today" localSheetId="1">TODAY()</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -240,7 +239,7 @@
     <t>Frame CSS for Spotify, Apple music &amp; YouTube</t>
   </si>
   <si>
-    <t>Finalizing Design</t>
+    <t>Finalizing Design and Hosting</t>
   </si>
 </sst>
 </file>
@@ -2554,15 +2553,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>31750</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>63500</xdr:rowOff>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>63</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
+          <xdr:colOff>342900</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>234950</xdr:rowOff>
+          <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2609,15 +2608,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>31750</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>63500</xdr:rowOff>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>63</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
+          <xdr:colOff>342900</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>234950</xdr:rowOff>
+          <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2664,15 +2663,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>31750</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>63500</xdr:rowOff>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>62</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:col>63</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3540,7 +3539,7 @@
       </c>
       <c r="C6" s="90" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">IFERROR(IF(MIN(Milestones4352[Start])=0,TODAY(),B11(Milestones4352[Start])),TODAY())</f>
-        <v>44278</v>
+        <v>44286</v>
       </c>
       <c r="D6" s="91"/>
       <c r="E6" s="84"/>
@@ -3549,7 +3548,7 @@
       <c r="H6" s="84"/>
       <c r="I6" s="109" t="str">
         <f ca="1">TEXT(I7,"mmmm")</f>
-        <v>March</v>
+        <v>April</v>
       </c>
       <c r="J6" s="109"/>
       <c r="K6" s="109"/>
@@ -3569,7 +3568,7 @@
       <c r="V6" s="109"/>
       <c r="W6" s="109" t="str">
         <f ca="1">IF(OR(TEXT(W7,"mmmm")=P6,TEXT(W7,"mmmm")=I6),"",TEXT(W7,"mmmm"))</f>
-        <v>April</v>
+        <v/>
       </c>
       <c r="X6" s="109"/>
       <c r="Y6" s="109"/>
@@ -3599,7 +3598,7 @@
       <c r="AQ6" s="109"/>
       <c r="AR6" s="109" t="str">
         <f ca="1">IF(OR(TEXT(AR7,"mmmm")=AK6,TEXT(AR7,"mmmm")=AD6,TEXT(AR7,"mmmm")=W6,TEXT(AR7,"mmmm")=P6),"",TEXT(AR7,"mmmm"))</f>
-        <v/>
+        <v>May</v>
       </c>
       <c r="AS6" s="109"/>
       <c r="AT6" s="109"/>
@@ -3609,7 +3608,7 @@
       <c r="AX6" s="110"/>
       <c r="AY6" s="110" t="str">
         <f ca="1">IF(OR(TEXT(AY7,"mmmm")=AR6,TEXT(AY7,"mmmm")=AK6,TEXT(AY7,"mmmm")=AD6,TEXT(AY7,"mmmm")=W6),"",TEXT(AY7,"mmmm"))</f>
-        <v>May</v>
+        <v/>
       </c>
       <c r="AZ6" s="110"/>
       <c r="BA6" s="110"/>
@@ -3644,227 +3643,227 @@
       <c r="H7" s="94"/>
       <c r="I7" s="116">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
-        <v>44279</v>
+        <v>44287</v>
       </c>
       <c r="J7" s="117">
         <f ca="1">I7+1</f>
-        <v>44280</v>
+        <v>44288</v>
       </c>
       <c r="K7" s="117">
         <f t="shared" ref="K7:AX7" ca="1" si="0">J7+1</f>
-        <v>44281</v>
+        <v>44289</v>
       </c>
       <c r="L7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44282</v>
+        <v>44290</v>
       </c>
       <c r="M7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44283</v>
+        <v>44291</v>
       </c>
       <c r="N7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44284</v>
+        <v>44292</v>
       </c>
       <c r="O7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44285</v>
+        <v>44293</v>
       </c>
       <c r="P7" s="117">
         <f ca="1">O7+1</f>
-        <v>44286</v>
+        <v>44294</v>
       </c>
       <c r="Q7" s="117">
         <f ca="1">P7+1</f>
-        <v>44287</v>
+        <v>44295</v>
       </c>
       <c r="R7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44288</v>
+        <v>44296</v>
       </c>
       <c r="S7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44289</v>
+        <v>44297</v>
       </c>
       <c r="T7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44290</v>
+        <v>44298</v>
       </c>
       <c r="U7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44291</v>
+        <v>44299</v>
       </c>
       <c r="V7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44292</v>
+        <v>44300</v>
       </c>
       <c r="W7" s="117">
         <f ca="1">V7+1</f>
-        <v>44293</v>
+        <v>44301</v>
       </c>
       <c r="X7" s="117">
         <f ca="1">W7+1</f>
-        <v>44294</v>
+        <v>44302</v>
       </c>
       <c r="Y7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44295</v>
+        <v>44303</v>
       </c>
       <c r="Z7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44296</v>
+        <v>44304</v>
       </c>
       <c r="AA7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44297</v>
+        <v>44305</v>
       </c>
       <c r="AB7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44298</v>
+        <v>44306</v>
       </c>
       <c r="AC7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44299</v>
+        <v>44307</v>
       </c>
       <c r="AD7" s="117">
         <f ca="1">AC7+1</f>
-        <v>44300</v>
+        <v>44308</v>
       </c>
       <c r="AE7" s="117">
         <f ca="1">AD7+1</f>
-        <v>44301</v>
+        <v>44309</v>
       </c>
       <c r="AF7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44302</v>
+        <v>44310</v>
       </c>
       <c r="AG7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44303</v>
+        <v>44311</v>
       </c>
       <c r="AH7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44304</v>
+        <v>44312</v>
       </c>
       <c r="AI7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44305</v>
+        <v>44313</v>
       </c>
       <c r="AJ7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44306</v>
+        <v>44314</v>
       </c>
       <c r="AK7" s="117">
         <f ca="1">AJ7+1</f>
-        <v>44307</v>
+        <v>44315</v>
       </c>
       <c r="AL7" s="117">
         <f ca="1">AK7+1</f>
-        <v>44308</v>
+        <v>44316</v>
       </c>
       <c r="AM7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44309</v>
+        <v>44317</v>
       </c>
       <c r="AN7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44310</v>
+        <v>44318</v>
       </c>
       <c r="AO7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44311</v>
+        <v>44319</v>
       </c>
       <c r="AP7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44312</v>
+        <v>44320</v>
       </c>
       <c r="AQ7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44313</v>
+        <v>44321</v>
       </c>
       <c r="AR7" s="117">
         <f ca="1">AQ7+1</f>
-        <v>44314</v>
+        <v>44322</v>
       </c>
       <c r="AS7" s="117">
         <f ca="1">AR7+1</f>
-        <v>44315</v>
+        <v>44323</v>
       </c>
       <c r="AT7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44316</v>
+        <v>44324</v>
       </c>
       <c r="AU7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44317</v>
+        <v>44325</v>
       </c>
       <c r="AV7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44318</v>
+        <v>44326</v>
       </c>
       <c r="AW7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44319</v>
+        <v>44327</v>
       </c>
       <c r="AX7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44320</v>
+        <v>44328</v>
       </c>
       <c r="AY7" s="117">
         <f t="shared" ref="AY7:BL7" ca="1" si="1">AX7+1</f>
-        <v>44321</v>
+        <v>44329</v>
       </c>
       <c r="AZ7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44322</v>
+        <v>44330</v>
       </c>
       <c r="BA7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44323</v>
+        <v>44331</v>
       </c>
       <c r="BB7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44324</v>
+        <v>44332</v>
       </c>
       <c r="BC7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44325</v>
+        <v>44333</v>
       </c>
       <c r="BD7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44326</v>
+        <v>44334</v>
       </c>
       <c r="BE7" s="118">
         <f t="shared" ca="1" si="1"/>
-        <v>44327</v>
+        <v>44335</v>
       </c>
       <c r="BF7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44328</v>
+        <v>44336</v>
       </c>
       <c r="BG7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44329</v>
+        <v>44337</v>
       </c>
       <c r="BH7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44330</v>
+        <v>44338</v>
       </c>
       <c r="BI7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44331</v>
+        <v>44339</v>
       </c>
       <c r="BJ7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44332</v>
+        <v>44340</v>
       </c>
       <c r="BK7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44333</v>
+        <v>44341</v>
       </c>
       <c r="BL7" s="118">
         <f t="shared" ca="1" si="1"/>
-        <v>44334</v>
+        <v>44342</v>
       </c>
       <c r="BM7" s="99"/>
     </row>
@@ -3958,15 +3957,15 @@
       <c r="H9" s="105"/>
       <c r="I9" s="124" t="str">
         <f t="shared" ref="I9:BL9" ca="1" si="2">LEFT(TEXT(I7,"ddd"),1)</f>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="J9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="K9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="L9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3974,27 +3973,27 @@
       </c>
       <c r="M9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="N9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="O9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="P9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="Q9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="R9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="S9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4002,27 +4001,27 @@
       </c>
       <c r="T9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="U9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="V9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="W9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="X9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="Y9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="Z9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4030,27 +4029,27 @@
       </c>
       <c r="AA9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AB9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AC9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="AD9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AE9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="AF9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="AG9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4058,27 +4057,27 @@
       </c>
       <c r="AH9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AI9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AJ9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="AK9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AL9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="AM9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="AN9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4086,27 +4085,27 @@
       </c>
       <c r="AO9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AP9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AQ9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="AR9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AS9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="AT9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="AU9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4114,27 +4113,27 @@
       </c>
       <c r="AV9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AW9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AX9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="AY9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AZ9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="BA9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="BB9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4142,27 +4141,27 @@
       </c>
       <c r="BC9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="BD9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="BE9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="BF9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="BG9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="BH9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="BI9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4170,15 +4169,15 @@
       </c>
       <c r="BJ9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="BK9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="BL9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="BM9" s="99"/>
     </row>
@@ -4502,7 +4501,7 @@
       </c>
       <c r="F12" s="69">
         <f ca="1">TODAY()</f>
-        <v>44278</v>
+        <v>44286</v>
       </c>
       <c r="G12" s="70">
         <v>3</v>
@@ -4746,7 +4745,7 @@
       <c r="E13" s="68"/>
       <c r="F13" s="69">
         <f ca="1">TODAY()+5</f>
-        <v>44283</v>
+        <v>44291</v>
       </c>
       <c r="G13" s="70">
         <v>1</v>
@@ -4992,7 +4991,7 @@
       </c>
       <c r="F14" s="69">
         <f ca="1">F12-3</f>
-        <v>44275</v>
+        <v>44283</v>
       </c>
       <c r="G14" s="70">
         <v>10</v>
@@ -5236,7 +5235,7 @@
       <c r="E15" s="68"/>
       <c r="F15" s="69">
         <f ca="1">F12+20</f>
-        <v>44298</v>
+        <v>44306</v>
       </c>
       <c r="G15" s="70">
         <v>1</v>
@@ -5482,7 +5481,7 @@
       </c>
       <c r="F16" s="69">
         <f ca="1">F12+6</f>
-        <v>44284</v>
+        <v>44292</v>
       </c>
       <c r="G16" s="70">
         <v>6</v>
@@ -5965,7 +5964,7 @@
       </c>
       <c r="F18" s="69">
         <f ca="1">F12+6</f>
-        <v>44284</v>
+        <v>44292</v>
       </c>
       <c r="G18" s="70">
         <v>13</v>
@@ -6211,7 +6210,7 @@
       </c>
       <c r="F19" s="69">
         <f ca="1">F18+2</f>
-        <v>44286</v>
+        <v>44294</v>
       </c>
       <c r="G19" s="70">
         <v>9</v>
@@ -6457,7 +6456,7 @@
       </c>
       <c r="F20" s="69">
         <f ca="1">F19+5</f>
-        <v>44291</v>
+        <v>44299</v>
       </c>
       <c r="G20" s="70">
         <v>11</v>
@@ -6701,7 +6700,7 @@
       <c r="E21" s="68"/>
       <c r="F21" s="69">
         <f ca="1">F20+2</f>
-        <v>44293</v>
+        <v>44301</v>
       </c>
       <c r="G21" s="70">
         <v>1</v>
@@ -6943,7 +6942,7 @@
       <c r="E22" s="68"/>
       <c r="F22" s="69">
         <f ca="1">F21+1</f>
-        <v>44294</v>
+        <v>44302</v>
       </c>
       <c r="G22" s="70">
         <v>24</v>
@@ -7424,7 +7423,7 @@
       <c r="E24" s="68"/>
       <c r="F24" s="69">
         <f ca="1">F12+15</f>
-        <v>44293</v>
+        <v>44301</v>
       </c>
       <c r="G24" s="70">
         <v>4</v>
@@ -7668,7 +7667,7 @@
       <c r="E25" s="68"/>
       <c r="F25" s="69">
         <f ca="1">F24+3</f>
-        <v>44296</v>
+        <v>44304</v>
       </c>
       <c r="G25" s="70">
         <v>14</v>
@@ -7912,7 +7911,7 @@
       <c r="E26" s="68"/>
       <c r="F26" s="69">
         <f ca="1">F25+15</f>
-        <v>44311</v>
+        <v>44319</v>
       </c>
       <c r="G26" s="70">
         <v>6</v>
@@ -8156,7 +8155,7 @@
       <c r="E27" s="68"/>
       <c r="F27" s="69">
         <f ca="1">F21+22</f>
-        <v>44315</v>
+        <v>44323</v>
       </c>
       <c r="G27" s="70">
         <v>3</v>
@@ -8400,7 +8399,7 @@
       <c r="E28" s="68"/>
       <c r="F28" s="69">
         <f ca="1">F16</f>
-        <v>44284</v>
+        <v>44292</v>
       </c>
       <c r="G28" s="70">
         <v>19</v>
@@ -8879,7 +8878,7 @@
       <c r="E30" s="68"/>
       <c r="F30" s="69">
         <f ca="1">F27+3</f>
-        <v>44318</v>
+        <v>44326</v>
       </c>
       <c r="G30" s="70">
         <v>15</v>
@@ -9121,7 +9120,7 @@
       <c r="E31" s="68"/>
       <c r="F31" s="69">
         <f ca="1">F30+14</f>
-        <v>44332</v>
+        <v>44340</v>
       </c>
       <c r="G31" s="70">
         <v>5</v>
@@ -9365,7 +9364,7 @@
       <c r="E32" s="68"/>
       <c r="F32" s="69">
         <f ca="1">F31+42</f>
-        <v>44374</v>
+        <v>44382</v>
       </c>
       <c r="G32" s="70">
         <v>1</v>
@@ -10902,7 +10901,7 @@
       </c>
       <c r="C6" s="39" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">IFERROR(IF(MIN(Milestones435[Start])=0,TODAY(),B11(Milestones435[Start])),TODAY())</f>
-        <v>44278</v>
+        <v>44286</v>
       </c>
       <c r="D6" s="60"/>
       <c r="E6" s="35"/>
@@ -10911,7 +10910,7 @@
       <c r="H6" s="32"/>
       <c r="I6" s="112" t="str">
         <f ca="1">TEXT(I7,"mmmm")</f>
-        <v>March</v>
+        <v>April</v>
       </c>
       <c r="J6" s="112"/>
       <c r="K6" s="112"/>
@@ -10931,7 +10930,7 @@
       <c r="V6" s="112"/>
       <c r="W6" s="112" t="str">
         <f ca="1">IF(OR(TEXT(W7,"mmmm")=P6,TEXT(W7,"mmmm")=I6),"",TEXT(W7,"mmmm"))</f>
-        <v>April</v>
+        <v/>
       </c>
       <c r="X6" s="112"/>
       <c r="Y6" s="112"/>
@@ -10961,7 +10960,7 @@
       <c r="AQ6" s="112"/>
       <c r="AR6" s="112" t="str">
         <f ca="1">IF(OR(TEXT(AR7,"mmmm")=AK6,TEXT(AR7,"mmmm")=AD6,TEXT(AR7,"mmmm")=W6,TEXT(AR7,"mmmm")=P6),"",TEXT(AR7,"mmmm"))</f>
-        <v/>
+        <v>May</v>
       </c>
       <c r="AS6" s="112"/>
       <c r="AT6" s="112"/>
@@ -10971,7 +10970,7 @@
       <c r="AX6" s="112"/>
       <c r="AY6" s="112" t="str">
         <f ca="1">IF(OR(TEXT(AY7,"mmmm")=AR6,TEXT(AY7,"mmmm")=AK6,TEXT(AY7,"mmmm")=AD6,TEXT(AY7,"mmmm")=W6),"",TEXT(AY7,"mmmm"))</f>
-        <v>May</v>
+        <v/>
       </c>
       <c r="AZ6" s="112"/>
       <c r="BA6" s="112"/>
@@ -11006,227 +11005,227 @@
       <c r="H7" s="38"/>
       <c r="I7" s="114">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
-        <v>44279</v>
+        <v>44287</v>
       </c>
       <c r="J7" s="19">
         <f ca="1">I7+1</f>
-        <v>44280</v>
+        <v>44288</v>
       </c>
       <c r="K7" s="19">
         <f t="shared" ref="K7:AX7" ca="1" si="0">J7+1</f>
-        <v>44281</v>
+        <v>44289</v>
       </c>
       <c r="L7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44282</v>
+        <v>44290</v>
       </c>
       <c r="M7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44283</v>
+        <v>44291</v>
       </c>
       <c r="N7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44284</v>
+        <v>44292</v>
       </c>
       <c r="O7" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>44285</v>
+        <v>44293</v>
       </c>
       <c r="P7" s="19">
         <f ca="1">O7+1</f>
-        <v>44286</v>
+        <v>44294</v>
       </c>
       <c r="Q7" s="19">
         <f ca="1">P7+1</f>
-        <v>44287</v>
+        <v>44295</v>
       </c>
       <c r="R7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44288</v>
+        <v>44296</v>
       </c>
       <c r="S7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44289</v>
+        <v>44297</v>
       </c>
       <c r="T7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44290</v>
+        <v>44298</v>
       </c>
       <c r="U7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44291</v>
+        <v>44299</v>
       </c>
       <c r="V7" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>44292</v>
+        <v>44300</v>
       </c>
       <c r="W7" s="19">
         <f ca="1">V7+1</f>
-        <v>44293</v>
+        <v>44301</v>
       </c>
       <c r="X7" s="19">
         <f ca="1">W7+1</f>
-        <v>44294</v>
+        <v>44302</v>
       </c>
       <c r="Y7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44295</v>
+        <v>44303</v>
       </c>
       <c r="Z7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44296</v>
+        <v>44304</v>
       </c>
       <c r="AA7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44297</v>
+        <v>44305</v>
       </c>
       <c r="AB7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44298</v>
+        <v>44306</v>
       </c>
       <c r="AC7" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>44299</v>
+        <v>44307</v>
       </c>
       <c r="AD7" s="19">
         <f ca="1">AC7+1</f>
-        <v>44300</v>
+        <v>44308</v>
       </c>
       <c r="AE7" s="19">
         <f ca="1">AD7+1</f>
-        <v>44301</v>
+        <v>44309</v>
       </c>
       <c r="AF7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44302</v>
+        <v>44310</v>
       </c>
       <c r="AG7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44303</v>
+        <v>44311</v>
       </c>
       <c r="AH7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44304</v>
+        <v>44312</v>
       </c>
       <c r="AI7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44305</v>
+        <v>44313</v>
       </c>
       <c r="AJ7" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>44306</v>
+        <v>44314</v>
       </c>
       <c r="AK7" s="19">
         <f ca="1">AJ7+1</f>
-        <v>44307</v>
+        <v>44315</v>
       </c>
       <c r="AL7" s="19">
         <f ca="1">AK7+1</f>
-        <v>44308</v>
+        <v>44316</v>
       </c>
       <c r="AM7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44309</v>
+        <v>44317</v>
       </c>
       <c r="AN7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44310</v>
+        <v>44318</v>
       </c>
       <c r="AO7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44311</v>
+        <v>44319</v>
       </c>
       <c r="AP7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44312</v>
+        <v>44320</v>
       </c>
       <c r="AQ7" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>44313</v>
+        <v>44321</v>
       </c>
       <c r="AR7" s="19">
         <f ca="1">AQ7+1</f>
-        <v>44314</v>
+        <v>44322</v>
       </c>
       <c r="AS7" s="19">
         <f ca="1">AR7+1</f>
-        <v>44315</v>
+        <v>44323</v>
       </c>
       <c r="AT7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44316</v>
+        <v>44324</v>
       </c>
       <c r="AU7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44317</v>
+        <v>44325</v>
       </c>
       <c r="AV7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44318</v>
+        <v>44326</v>
       </c>
       <c r="AW7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44319</v>
+        <v>44327</v>
       </c>
       <c r="AX7" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>44320</v>
+        <v>44328</v>
       </c>
       <c r="AY7" s="19">
         <f t="shared" ref="AY7:BL7" ca="1" si="1">AX7+1</f>
-        <v>44321</v>
+        <v>44329</v>
       </c>
       <c r="AZ7" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>44322</v>
+        <v>44330</v>
       </c>
       <c r="BA7" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>44323</v>
+        <v>44331</v>
       </c>
       <c r="BB7" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>44324</v>
+        <v>44332</v>
       </c>
       <c r="BC7" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>44325</v>
+        <v>44333</v>
       </c>
       <c r="BD7" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>44326</v>
+        <v>44334</v>
       </c>
       <c r="BE7" s="72">
         <f t="shared" ca="1" si="1"/>
-        <v>44327</v>
+        <v>44335</v>
       </c>
       <c r="BF7" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>44328</v>
+        <v>44336</v>
       </c>
       <c r="BG7" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>44329</v>
+        <v>44337</v>
       </c>
       <c r="BH7" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>44330</v>
+        <v>44338</v>
       </c>
       <c r="BI7" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>44331</v>
+        <v>44339</v>
       </c>
       <c r="BJ7" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>44332</v>
+        <v>44340</v>
       </c>
       <c r="BK7" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>44333</v>
+        <v>44341</v>
       </c>
       <c r="BL7" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44334</v>
+        <v>44342</v>
       </c>
       <c r="BM7" s="35"/>
     </row>
@@ -11320,15 +11319,15 @@
       <c r="H9" s="55"/>
       <c r="I9" s="43" t="str">
         <f t="shared" ref="I9:BL9" ca="1" si="2">LEFT(TEXT(I7,"ddd"),1)</f>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="J9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="K9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="L9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -11336,27 +11335,27 @@
       </c>
       <c r="M9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="N9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="O9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="P9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="Q9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="R9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="S9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -11364,27 +11363,27 @@
       </c>
       <c r="T9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="U9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="V9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="W9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="X9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="Y9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="Z9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -11392,27 +11391,27 @@
       </c>
       <c r="AA9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AB9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AC9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="AD9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AE9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="AF9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="AG9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -11420,27 +11419,27 @@
       </c>
       <c r="AH9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AI9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AJ9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="AK9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AL9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="AM9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="AN9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -11448,27 +11447,27 @@
       </c>
       <c r="AO9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AP9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AQ9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="AR9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AS9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="AT9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="AU9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -11476,27 +11475,27 @@
       </c>
       <c r="AV9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AW9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AX9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="AY9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AZ9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="BA9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="BB9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -11504,27 +11503,27 @@
       </c>
       <c r="BC9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="BD9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="BE9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="BF9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="BG9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="BH9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="BI9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -11532,15 +11531,15 @@
       </c>
       <c r="BJ9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="BK9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="BL9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="BM9" s="35"/>
     </row>
@@ -11864,7 +11863,7 @@
       </c>
       <c r="F12" s="26">
         <f ca="1">TODAY()</f>
-        <v>44278</v>
+        <v>44286</v>
       </c>
       <c r="G12" s="27">
         <v>3</v>
@@ -12108,7 +12107,7 @@
       <c r="E13" s="25"/>
       <c r="F13" s="26">
         <f ca="1">TODAY()+5</f>
-        <v>44283</v>
+        <v>44291</v>
       </c>
       <c r="G13" s="27">
         <v>1</v>
@@ -12354,7 +12353,7 @@
       </c>
       <c r="F14" s="26">
         <f ca="1">F12-3</f>
-        <v>44275</v>
+        <v>44283</v>
       </c>
       <c r="G14" s="27">
         <v>10</v>
@@ -12598,7 +12597,7 @@
       <c r="E15" s="25"/>
       <c r="F15" s="26">
         <f ca="1">F12+20</f>
-        <v>44298</v>
+        <v>44306</v>
       </c>
       <c r="G15" s="27">
         <v>1</v>
@@ -12844,7 +12843,7 @@
       </c>
       <c r="F16" s="26">
         <f ca="1">F12+6</f>
-        <v>44284</v>
+        <v>44292</v>
       </c>
       <c r="G16" s="27">
         <v>6</v>
@@ -13327,7 +13326,7 @@
       </c>
       <c r="F18" s="26">
         <f ca="1">F12+6</f>
-        <v>44284</v>
+        <v>44292</v>
       </c>
       <c r="G18" s="27">
         <v>13</v>
@@ -13573,7 +13572,7 @@
       </c>
       <c r="F19" s="26">
         <f ca="1">F18+2</f>
-        <v>44286</v>
+        <v>44294</v>
       </c>
       <c r="G19" s="27">
         <v>9</v>
@@ -13819,7 +13818,7 @@
       </c>
       <c r="F20" s="26">
         <f ca="1">F19+5</f>
-        <v>44291</v>
+        <v>44299</v>
       </c>
       <c r="G20" s="27">
         <v>11</v>
@@ -14063,7 +14062,7 @@
       <c r="E21" s="25"/>
       <c r="F21" s="26">
         <f ca="1">F20+2</f>
-        <v>44293</v>
+        <v>44301</v>
       </c>
       <c r="G21" s="27">
         <v>1</v>
@@ -14305,7 +14304,7 @@
       <c r="E22" s="25"/>
       <c r="F22" s="26">
         <f ca="1">F21+1</f>
-        <v>44294</v>
+        <v>44302</v>
       </c>
       <c r="G22" s="27">
         <v>24</v>
@@ -14786,7 +14785,7 @@
       <c r="E24" s="25"/>
       <c r="F24" s="26">
         <f ca="1">F12+15</f>
-        <v>44293</v>
+        <v>44301</v>
       </c>
       <c r="G24" s="27">
         <v>4</v>
@@ -15030,7 +15029,7 @@
       <c r="E25" s="25"/>
       <c r="F25" s="26">
         <f ca="1">F24+3</f>
-        <v>44296</v>
+        <v>44304</v>
       </c>
       <c r="G25" s="27">
         <v>14</v>
@@ -15274,7 +15273,7 @@
       <c r="E26" s="25"/>
       <c r="F26" s="26">
         <f ca="1">F25+15</f>
-        <v>44311</v>
+        <v>44319</v>
       </c>
       <c r="G26" s="27">
         <v>6</v>
@@ -15518,7 +15517,7 @@
       <c r="E27" s="25"/>
       <c r="F27" s="26">
         <f ca="1">F21+22</f>
-        <v>44315</v>
+        <v>44323</v>
       </c>
       <c r="G27" s="27">
         <v>3</v>
@@ -15762,7 +15761,7 @@
       <c r="E28" s="25"/>
       <c r="F28" s="26">
         <f ca="1">F16</f>
-        <v>44284</v>
+        <v>44292</v>
       </c>
       <c r="G28" s="27">
         <v>19</v>
@@ -16241,7 +16240,7 @@
       <c r="E30" s="25"/>
       <c r="F30" s="26">
         <f ca="1">F27+3</f>
-        <v>44318</v>
+        <v>44326</v>
       </c>
       <c r="G30" s="27">
         <v>15</v>
@@ -16483,7 +16482,7 @@
       <c r="E31" s="25"/>
       <c r="F31" s="26">
         <f ca="1">F30+14</f>
-        <v>44332</v>
+        <v>44340</v>
       </c>
       <c r="G31" s="27">
         <v>5</v>
@@ -16727,7 +16726,7 @@
       <c r="E32" s="25"/>
       <c r="F32" s="26">
         <f ca="1">F31+42</f>
-        <v>44374</v>
+        <v>44382</v>
       </c>
       <c r="G32" s="27">
         <v>1</v>
@@ -17954,7 +17953,7 @@
   <dimension ref="A1:BO28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18261,7 +18260,7 @@
       </c>
       <c r="C6" s="90" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">IFERROR(IF(MIN(Milestones43524[Start])=0,TODAY(),B11(Milestones43524[Start])),TODAY())</f>
-        <v>44278</v>
+        <v>44286</v>
       </c>
       <c r="D6" s="84"/>
       <c r="E6" s="92"/>
@@ -18279,7 +18278,7 @@
       <c r="N6" s="109"/>
       <c r="O6" s="109" t="str">
         <f ca="1">IF(TEXT(O7,"mmmm")=H6,"",TEXT(O7,"mmmm"))</f>
-        <v/>
+        <v>April</v>
       </c>
       <c r="P6" s="109"/>
       <c r="Q6" s="109"/>
@@ -18289,7 +18288,7 @@
       <c r="U6" s="109"/>
       <c r="V6" s="109" t="str">
         <f ca="1">IF(OR(TEXT(V7,"mmmm")=O6,TEXT(V7,"mmmm")=H6),"",TEXT(V7,"mmmm"))</f>
-        <v>April</v>
+        <v/>
       </c>
       <c r="W6" s="109"/>
       <c r="X6" s="109"/>
@@ -18319,7 +18318,7 @@
       <c r="AP6" s="109"/>
       <c r="AQ6" s="109" t="str">
         <f ca="1">IF(OR(TEXT(AQ7,"mmmm")=AJ6,TEXT(AQ7,"mmmm")=AC6,TEXT(AQ7,"mmmm")=V6,TEXT(AQ7,"mmmm")=O6),"",TEXT(AQ7,"mmmm"))</f>
-        <v/>
+        <v>May</v>
       </c>
       <c r="AR6" s="109"/>
       <c r="AS6" s="109"/>
@@ -18329,7 +18328,7 @@
       <c r="AW6" s="110"/>
       <c r="AX6" s="110" t="str">
         <f ca="1">IF(OR(TEXT(AX7,"mmmm")=AQ6,TEXT(AX7,"mmmm")=AJ6,TEXT(AX7,"mmmm")=AC6,TEXT(AX7,"mmmm")=V6),"",TEXT(AX7,"mmmm"))</f>
-        <v>May</v>
+        <v/>
       </c>
       <c r="AY6" s="110"/>
       <c r="AZ6" s="110"/>
@@ -18363,227 +18362,227 @@
       <c r="G7" s="94"/>
       <c r="H7" s="116">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
-        <v>44278</v>
+        <v>44286</v>
       </c>
       <c r="I7" s="117">
         <f ca="1">H7+1</f>
-        <v>44279</v>
+        <v>44287</v>
       </c>
       <c r="J7" s="117">
         <f t="shared" ref="J7:AW7" ca="1" si="0">I7+1</f>
-        <v>44280</v>
+        <v>44288</v>
       </c>
       <c r="K7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44281</v>
+        <v>44289</v>
       </c>
       <c r="L7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44282</v>
+        <v>44290</v>
       </c>
       <c r="M7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44283</v>
+        <v>44291</v>
       </c>
       <c r="N7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44284</v>
+        <v>44292</v>
       </c>
       <c r="O7" s="117">
         <f ca="1">N7+1</f>
-        <v>44285</v>
+        <v>44293</v>
       </c>
       <c r="P7" s="117">
         <f ca="1">O7+1</f>
-        <v>44286</v>
+        <v>44294</v>
       </c>
       <c r="Q7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44287</v>
+        <v>44295</v>
       </c>
       <c r="R7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44288</v>
+        <v>44296</v>
       </c>
       <c r="S7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44289</v>
+        <v>44297</v>
       </c>
       <c r="T7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44290</v>
+        <v>44298</v>
       </c>
       <c r="U7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44291</v>
+        <v>44299</v>
       </c>
       <c r="V7" s="117">
         <f ca="1">U7+1</f>
-        <v>44292</v>
+        <v>44300</v>
       </c>
       <c r="W7" s="117">
         <f ca="1">V7+1</f>
-        <v>44293</v>
+        <v>44301</v>
       </c>
       <c r="X7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44294</v>
+        <v>44302</v>
       </c>
       <c r="Y7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44295</v>
+        <v>44303</v>
       </c>
       <c r="Z7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44296</v>
+        <v>44304</v>
       </c>
       <c r="AA7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44297</v>
+        <v>44305</v>
       </c>
       <c r="AB7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44298</v>
+        <v>44306</v>
       </c>
       <c r="AC7" s="117">
         <f ca="1">AB7+1</f>
-        <v>44299</v>
+        <v>44307</v>
       </c>
       <c r="AD7" s="117">
         <f ca="1">AC7+1</f>
-        <v>44300</v>
+        <v>44308</v>
       </c>
       <c r="AE7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44301</v>
+        <v>44309</v>
       </c>
       <c r="AF7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44302</v>
+        <v>44310</v>
       </c>
       <c r="AG7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44303</v>
+        <v>44311</v>
       </c>
       <c r="AH7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44304</v>
+        <v>44312</v>
       </c>
       <c r="AI7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44305</v>
+        <v>44313</v>
       </c>
       <c r="AJ7" s="117">
         <f ca="1">AI7+1</f>
-        <v>44306</v>
+        <v>44314</v>
       </c>
       <c r="AK7" s="117">
         <f ca="1">AJ7+1</f>
-        <v>44307</v>
+        <v>44315</v>
       </c>
       <c r="AL7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44308</v>
+        <v>44316</v>
       </c>
       <c r="AM7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44309</v>
+        <v>44317</v>
       </c>
       <c r="AN7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44310</v>
+        <v>44318</v>
       </c>
       <c r="AO7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44311</v>
+        <v>44319</v>
       </c>
       <c r="AP7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44312</v>
+        <v>44320</v>
       </c>
       <c r="AQ7" s="117">
         <f ca="1">AP7+1</f>
-        <v>44313</v>
+        <v>44321</v>
       </c>
       <c r="AR7" s="117">
         <f ca="1">AQ7+1</f>
-        <v>44314</v>
+        <v>44322</v>
       </c>
       <c r="AS7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44315</v>
+        <v>44323</v>
       </c>
       <c r="AT7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44316</v>
+        <v>44324</v>
       </c>
       <c r="AU7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44317</v>
+        <v>44325</v>
       </c>
       <c r="AV7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44318</v>
+        <v>44326</v>
       </c>
       <c r="AW7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44319</v>
+        <v>44327</v>
       </c>
       <c r="AX7" s="117">
         <f t="shared" ref="AX7:BK7" ca="1" si="1">AW7+1</f>
-        <v>44320</v>
+        <v>44328</v>
       </c>
       <c r="AY7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44321</v>
+        <v>44329</v>
       </c>
       <c r="AZ7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44322</v>
+        <v>44330</v>
       </c>
       <c r="BA7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44323</v>
+        <v>44331</v>
       </c>
       <c r="BB7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44324</v>
+        <v>44332</v>
       </c>
       <c r="BC7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44325</v>
+        <v>44333</v>
       </c>
       <c r="BD7" s="118">
         <f t="shared" ca="1" si="1"/>
-        <v>44326</v>
+        <v>44334</v>
       </c>
       <c r="BE7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44327</v>
+        <v>44335</v>
       </c>
       <c r="BF7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44328</v>
+        <v>44336</v>
       </c>
       <c r="BG7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44329</v>
+        <v>44337</v>
       </c>
       <c r="BH7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44330</v>
+        <v>44338</v>
       </c>
       <c r="BI7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44331</v>
+        <v>44339</v>
       </c>
       <c r="BJ7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44332</v>
+        <v>44340</v>
       </c>
       <c r="BK7" s="118">
         <f t="shared" ca="1" si="1"/>
-        <v>44333</v>
+        <v>44341</v>
       </c>
       <c r="BL7" s="99"/>
     </row>
@@ -18673,19 +18672,19 @@
       <c r="G9" s="105"/>
       <c r="H9" s="124" t="str">
         <f t="shared" ref="H9:BK9" ca="1" si="2">LEFT(TEXT(H7,"ddd"),1)</f>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="I9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="J9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="K9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="L9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -18693,27 +18692,27 @@
       </c>
       <c r="M9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="N9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="O9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="P9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="Q9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="R9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="S9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -18721,27 +18720,27 @@
       </c>
       <c r="T9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="U9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="V9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="W9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="X9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="Y9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="Z9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -18749,27 +18748,27 @@
       </c>
       <c r="AA9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AB9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AC9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="AD9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AE9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="AF9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="AG9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -18777,27 +18776,27 @@
       </c>
       <c r="AH9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AI9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AJ9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="AK9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AL9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="AM9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="AN9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -18805,27 +18804,27 @@
       </c>
       <c r="AO9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AP9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AQ9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="AR9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AS9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="AT9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="AU9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -18833,27 +18832,27 @@
       </c>
       <c r="AV9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AW9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AX9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="AY9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AZ9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="BA9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="BB9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -18861,27 +18860,27 @@
       </c>
       <c r="BC9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="BD9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="BE9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="BF9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="BG9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="BH9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="BI9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -18889,11 +18888,11 @@
       </c>
       <c r="BJ9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="BK9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="BL9" s="99"/>
     </row>
@@ -19212,7 +19211,7 @@
       </c>
       <c r="E12" s="69">
         <f ca="1">TODAY()-8</f>
-        <v>44270</v>
+        <v>44278</v>
       </c>
       <c r="F12" s="70">
         <v>18</v>
@@ -19457,7 +19456,7 @@
       </c>
       <c r="E13" s="69">
         <f ca="1">TODAY()-8</f>
-        <v>44270</v>
+        <v>44278</v>
       </c>
       <c r="F13" s="70">
         <v>18</v>
@@ -19702,7 +19701,7 @@
       </c>
       <c r="E14" s="69">
         <f ca="1">E13</f>
-        <v>44270</v>
+        <v>44278</v>
       </c>
       <c r="F14" s="70">
         <v>18</v>
@@ -19947,7 +19946,7 @@
       </c>
       <c r="E15" s="69">
         <f ca="1">E13</f>
-        <v>44270</v>
+        <v>44278</v>
       </c>
       <c r="F15" s="70">
         <v>1</v>
@@ -20425,8 +20424,8 @@
       </c>
       <c r="D17" s="68"/>
       <c r="E17" s="69">
-        <f ca="1">E12+11</f>
-        <v>44281</v>
+        <f ca="1">E12+9</f>
+        <v>44287</v>
       </c>
       <c r="F17" s="70">
         <v>1</v>
@@ -20669,7 +20668,7 @@
       <c r="D18" s="68"/>
       <c r="E18" s="69">
         <f ca="1">E17</f>
-        <v>44281</v>
+        <v>44287</v>
       </c>
       <c r="F18" s="70">
         <v>1</v>
@@ -20912,10 +20911,10 @@
       <c r="D19" s="68"/>
       <c r="E19" s="69">
         <f ca="1">E17</f>
-        <v>44281</v>
+        <v>44287</v>
       </c>
       <c r="F19" s="70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G19" s="103"/>
       <c r="H19" s="29" t="str">
@@ -21155,7 +21154,7 @@
       <c r="D20" s="68"/>
       <c r="E20" s="69">
         <f ca="1">E17</f>
-        <v>44281</v>
+        <v>44287</v>
       </c>
       <c r="F20" s="70">
         <v>3</v>
@@ -21398,10 +21397,10 @@
       <c r="D21" s="68"/>
       <c r="E21" s="69">
         <f ca="1">E17+1</f>
-        <v>44282</v>
+        <v>44288</v>
       </c>
       <c r="F21" s="70">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G21" s="103"/>
       <c r="H21" s="29" t="str">
@@ -21641,10 +21640,10 @@
       <c r="D22" s="68"/>
       <c r="E22" s="69">
         <f ca="1">E17+1</f>
-        <v>44282</v>
+        <v>44288</v>
       </c>
       <c r="F22" s="70">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G22" s="103"/>
       <c r="H22" s="29" t="str">
@@ -21884,7 +21883,7 @@
       <c r="D23" s="68"/>
       <c r="E23" s="69">
         <f ca="1">E17+1</f>
-        <v>44282</v>
+        <v>44288</v>
       </c>
       <c r="F23" s="70">
         <v>7</v>
@@ -22127,10 +22126,10 @@
       <c r="D24" s="68"/>
       <c r="E24" s="69">
         <f ca="1">E17+2</f>
-        <v>44283</v>
+        <v>44289</v>
       </c>
       <c r="F24" s="70">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G24" s="103"/>
       <c r="H24" s="29" t="str">
@@ -22370,10 +22369,10 @@
       <c r="D25" s="68"/>
       <c r="E25" s="69">
         <f ca="1">E17+5</f>
-        <v>44286</v>
+        <v>44292</v>
       </c>
       <c r="F25" s="70">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G25" s="103"/>
       <c r="H25" s="29" t="str">
@@ -22613,10 +22612,10 @@
       <c r="D26" s="68"/>
       <c r="E26" s="69">
         <f ca="1">E17+6</f>
-        <v>44287</v>
+        <v>44293</v>
       </c>
       <c r="F26" s="70">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G26" s="103"/>
       <c r="H26" s="29" t="str">
@@ -23394,15 +23393,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -23419,6 +23409,15 @@
     <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -23443,14 +23442,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39060724-9CA2-4290-8A0C-B53624A594E7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4BA2A8-DB97-40F9-8DB6-154C09C7467C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -23460,4 +23451,12 @@
     <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39060724-9CA2-4290-8A0C-B53624A594E7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Daniel Akoto - Gantt Chart Individual Project (version 1).xlsb.xlsx
+++ b/Daniel Akoto - Gantt Chart Individual Project (version 1).xlsb.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B700F67-7DD8-4439-A88F-73766FF33061}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB1F571-2DDB-4820-A6EB-7D6C29B3F70D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="4680" windowWidth="28800" windowHeight="15948" tabRatio="415" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2860" yWindow="2860" windowWidth="24000" windowHeight="13250" tabRatio="415" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="12" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="66">
   <si>
     <t>Task 3</t>
   </si>
@@ -241,6 +241,36 @@
   <si>
     <t>Finalizing Design and Hosting</t>
   </si>
+  <si>
+    <t>Date Completed &amp; Reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4/20/2021, The dates of all the Implementation tasks were moved forward  days. </t>
+  </si>
+  <si>
+    <t>4/21/2021, The Design was altered later in the project during Design Review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4/20/2021, New tools were added into the list. </t>
+  </si>
+  <si>
+    <t>4/23/2021, Getting a color scheme was difficult because I changed the schem multiple times</t>
+  </si>
+  <si>
+    <t>4/26/2021, I completed most of the debugging in one day.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4/26/2021, </t>
+  </si>
+  <si>
+    <t>4/23/2021, The songs did not take as long as I thougt it woul take.</t>
+  </si>
+  <si>
+    <t>4/22/2021, The embeeding process only too a few minutes, spotify makes it easy.</t>
+  </si>
+  <si>
+    <t>4/26/2021, I began hosting the site a lot earlier than predicted. ( 4/21/2021)</t>
+  </si>
 </sst>
 </file>
 
@@ -250,7 +280,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="d"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -488,6 +518,14 @@
       <sz val="14"/>
       <name val="Corbel"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="15">
@@ -835,7 +873,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1263,6 +1301,15 @@
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Accent3" xfId="11" builtinId="37"/>
@@ -1278,7 +1325,33 @@
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="70">
+  <dxfs count="71">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2369,21 +2442,21 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Gantt Table Style" pivot="0" count="4" xr9:uid="{4904D139-63E4-4221-B7C9-C6C5B7A50FAF}">
-      <tableStyleElement type="wholeTable" dxfId="69"/>
-      <tableStyleElement type="headerRow" dxfId="68"/>
-      <tableStyleElement type="firstRowStripe" dxfId="67"/>
-      <tableStyleElement type="secondRowStripe" dxfId="66"/>
+      <tableStyleElement type="wholeTable" dxfId="70"/>
+      <tableStyleElement type="headerRow" dxfId="69"/>
+      <tableStyleElement type="firstRowStripe" dxfId="68"/>
+      <tableStyleElement type="secondRowStripe" dxfId="67"/>
     </tableStyle>
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="65"/>
-      <tableStyleElement type="headerRow" dxfId="64"/>
-      <tableStyleElement type="totalRow" dxfId="63"/>
-      <tableStyleElement type="firstColumn" dxfId="62"/>
-      <tableStyleElement type="lastColumn" dxfId="61"/>
-      <tableStyleElement type="firstRowStripe" dxfId="60"/>
-      <tableStyleElement type="secondRowStripe" dxfId="59"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="58"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="57"/>
+      <tableStyleElement type="wholeTable" dxfId="66"/>
+      <tableStyleElement type="headerRow" dxfId="65"/>
+      <tableStyleElement type="totalRow" dxfId="64"/>
+      <tableStyleElement type="firstColumn" dxfId="63"/>
+      <tableStyleElement type="lastColumn" dxfId="62"/>
+      <tableStyleElement type="firstRowStripe" dxfId="61"/>
+      <tableStyleElement type="secondRowStripe" dxfId="60"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="59"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="58"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2553,7 +2626,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>50800</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
@@ -2561,7 +2634,7 @@
           <xdr:col>63</xdr:col>
           <xdr:colOff>342900</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>352425</xdr:rowOff>
+          <xdr:rowOff>355600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2608,7 +2681,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>50800</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
@@ -2616,7 +2689,7 @@
           <xdr:col>63</xdr:col>
           <xdr:colOff>342900</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>352425</xdr:rowOff>
+          <xdr:rowOff>355600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2663,15 +2736,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>50800</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>63</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>62</xdr:col>
+          <xdr:colOff>161416</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>3136</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2712,7 +2785,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DD82988E-1813-40AE-BDE7-9F0200A703CB}" name="Milestones4352" displayName="Milestones4352" ref="B9:G36" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DD82988E-1813-40AE-BDE7-9F0200A703CB}" name="Milestones4352" displayName="Milestones4352" ref="B9:G36" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
   <autoFilter ref="B9:G36" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2722,12 +2795,12 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{619BF8F6-D0F1-41AD-871D-FE0240C45A93}" name="Milestone description" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{39BD914E-FB02-4352-846C-6D59624DC0B0}" name="Category" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{D274194F-BCA0-44F3-84B2-217254EE241C}" name="Assigned to" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{8385BC6F-56EE-4363-A106-8DB0A1E4EF5A}" name="Progress" dataDxfId="37"/>
-    <tableColumn id="5" xr3:uid="{02926609-7B93-4B6F-BE96-92EC7A949E4B}" name="Start" dataDxfId="36" dataCellStyle="Date"/>
-    <tableColumn id="6" xr3:uid="{8FF9BE8E-04B7-4B39-AC27-D2E534204BC3}" name="Days" dataDxfId="35" dataCellStyle="Comma [0]"/>
+    <tableColumn id="1" xr3:uid="{619BF8F6-D0F1-41AD-871D-FE0240C45A93}" name="Milestone description" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{39BD914E-FB02-4352-846C-6D59624DC0B0}" name="Category" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{D274194F-BCA0-44F3-84B2-217254EE241C}" name="Assigned to" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{8385BC6F-56EE-4363-A106-8DB0A1E4EF5A}" name="Progress" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{02926609-7B93-4B6F-BE96-92EC7A949E4B}" name="Start" dataDxfId="37" dataCellStyle="Date"/>
+    <tableColumn id="6" xr3:uid="{8FF9BE8E-04B7-4B39-AC27-D2E534204BC3}" name="Days" dataDxfId="36" dataCellStyle="Comma [0]"/>
   </tableColumns>
   <tableStyleInfo name="ToDoList" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2739,7 +2812,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0EDB95CA-98FE-4198-8801-690B9B480FDF}" name="Milestones435" displayName="Milestones435" ref="B9:G36" totalsRowShown="0" headerRowDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0EDB95CA-98FE-4198-8801-690B9B480FDF}" name="Milestones435" displayName="Milestones435" ref="B9:G36" totalsRowShown="0" headerRowDxfId="21">
   <autoFilter ref="B9:G36" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2749,9 +2822,9 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{6E47A83D-ACD7-4EB6-9B84-5195E813945E}" name="Milestone description" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{529EEF64-D037-4ACF-8CA4-0C10FE2D1FBB}" name="Category" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{711D01BA-2785-403A-9636-CCC7E2ADA584}" name="Assigned to" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{6E47A83D-ACD7-4EB6-9B84-5195E813945E}" name="Milestone description" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{529EEF64-D037-4ACF-8CA4-0C10FE2D1FBB}" name="Category" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{711D01BA-2785-403A-9636-CCC7E2ADA584}" name="Assigned to" dataDxfId="18"/>
     <tableColumn id="4" xr3:uid="{62B00BEF-16BE-4692-B5E2-F287F680F2C1}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{D6D72902-F68F-4E59-A714-AFFF520C647A}" name="Start" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{93E698DE-286F-49ED-AA20-D0C843671DE8}" name="Days" dataCellStyle="Comma [0]"/>
@@ -2766,20 +2839,22 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{876EA49D-634E-482B-8173-880F7B761E2C}" name="Milestones43524" displayName="Milestones43524" ref="B9:F27" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="B9:F27" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{876EA49D-634E-482B-8173-880F7B761E2C}" name="Milestones43524" displayName="Milestones43524" ref="B9:G27" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="B9:G27" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
     <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{0971B905-713A-4980-8BBC-DF959C2E61F9}" name="Milestone description" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{4492A0B8-068F-4002-9E8D-E1F5FED367F0}" name="Category" dataDxfId="0"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{0971B905-713A-4980-8BBC-DF959C2E61F9}" name="Milestone description" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{4492A0B8-068F-4002-9E8D-E1F5FED367F0}" name="Category" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{47C54592-75B0-4C70-BBF8-0F40483670E9}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{663FB5E0-7616-4EA5-B56A-FF069E2E07D7}" name="Start" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{3B766962-C06F-4E12-BE91-12AB93439874}" name="Days" dataCellStyle="Comma [0]"/>
+    <tableColumn id="3" xr3:uid="{6704CC2E-2C12-48A7-89BA-D0345D81EFC9}" name="Date Completed &amp; Reason" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="ToDoList" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3058,19 +3133,19 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="2.85546875" style="8" customWidth="1"/>
-    <col min="3" max="5" width="40.85546875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="2.85546875" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="4.81640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="2.81640625" style="8" customWidth="1"/>
+    <col min="3" max="5" width="40.81640625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="2.81640625" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="9.1796875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.6">
       <c r="D1" s="125"/>
     </row>
-    <row r="2" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" ht="50.15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="7"/>
       <c r="B2" s="131"/>
       <c r="C2" s="142" t="s">
@@ -3087,7 +3162,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="7"/>
       <c r="B3" s="126"/>
       <c r="C3" s="127"/>
@@ -3102,7 +3177,7 @@
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
     </row>
-    <row r="4" spans="1:13" s="8" customFormat="1" ht="66.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" s="8" customFormat="1" ht="67" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="7"/>
       <c r="B4" s="126"/>
       <c r="C4" s="143" t="s">
@@ -3119,7 +3194,7 @@
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
     </row>
-    <row r="5" spans="1:13" s="8" customFormat="1" ht="66.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" s="8" customFormat="1" ht="67" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="7"/>
       <c r="B5" s="126"/>
       <c r="C5" s="143" t="s">
@@ -3136,7 +3211,7 @@
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
       <c r="B6" s="129"/>
       <c r="C6" s="129"/>
@@ -3144,15 +3219,15 @@
       <c r="E6" s="129"/>
       <c r="F6" s="129"/>
     </row>
-    <row r="7" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="50.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
     </row>
-    <row r="8" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
     </row>
-    <row r="9" spans="1:13" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -3160,51 +3235,51 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="D18" s="8"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="D19" s="8"/>
@@ -3230,23 +3305,23 @@
   <sheetViews>
     <sheetView showGridLines="0" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="12" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="2.5703125" style="12" customWidth="1"/>
-    <col min="9" max="64" width="3.5703125" style="12" customWidth="1"/>
-    <col min="65" max="65" width="2.5703125" style="12" customWidth="1"/>
-    <col min="66" max="16384" width="8.85546875" style="12"/>
+    <col min="1" max="1" width="4.81640625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="30.81640625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.54296875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="15.81640625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="2.54296875" style="12" customWidth="1"/>
+    <col min="9" max="64" width="3.54296875" style="12" customWidth="1"/>
+    <col min="65" max="65" width="2.54296875" style="12" customWidth="1"/>
+    <col min="66" max="16384" width="8.81640625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:68" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:68" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:68" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10"/>
       <c r="B2" s="146" t="s">
         <v>5</v>
@@ -3315,7 +3390,7 @@
       <c r="BL2" s="76"/>
       <c r="BM2" s="76"/>
     </row>
-    <row r="3" spans="1:68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:68" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10"/>
       <c r="B3" s="77"/>
       <c r="C3" s="78"/>
@@ -3382,7 +3457,7 @@
       <c r="BL3" s="98"/>
       <c r="BM3" s="99"/>
     </row>
-    <row r="4" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10"/>
       <c r="B4" s="81" t="s">
         <v>22</v>
@@ -3463,7 +3538,7 @@
       <c r="BL4" s="99"/>
       <c r="BM4" s="99"/>
     </row>
-    <row r="5" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10"/>
       <c r="B5" s="87" t="s">
         <v>21</v>
@@ -3532,14 +3607,14 @@
       <c r="BL5" s="98"/>
       <c r="BM5" s="99"/>
     </row>
-    <row r="6" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="10"/>
       <c r="B6" s="89" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="90" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">IFERROR(IF(MIN(Milestones4352[Start])=0,TODAY(),B11(Milestones4352[Start])),TODAY())</f>
-        <v>44286</v>
+        <v>44313</v>
       </c>
       <c r="D6" s="91"/>
       <c r="E6" s="84"/>
@@ -3558,7 +3633,7 @@
       <c r="O6" s="109"/>
       <c r="P6" s="109" t="str">
         <f ca="1">IF(TEXT(P7,"mmmm")=I6,"",TEXT(P7,"mmmm"))</f>
-        <v/>
+        <v>May</v>
       </c>
       <c r="Q6" s="109"/>
       <c r="R6" s="109"/>
@@ -3598,7 +3673,7 @@
       <c r="AQ6" s="109"/>
       <c r="AR6" s="109" t="str">
         <f ca="1">IF(OR(TEXT(AR7,"mmmm")=AK6,TEXT(AR7,"mmmm")=AD6,TEXT(AR7,"mmmm")=W6,TEXT(AR7,"mmmm")=P6),"",TEXT(AR7,"mmmm"))</f>
-        <v>May</v>
+        <v>June</v>
       </c>
       <c r="AS6" s="109"/>
       <c r="AT6" s="109"/>
@@ -3628,7 +3703,7 @@
       <c r="BL6" s="108"/>
       <c r="BM6" s="99"/>
     </row>
-    <row r="7" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10"/>
       <c r="B7" s="89" t="s">
         <v>12</v>
@@ -3643,231 +3718,231 @@
       <c r="H7" s="94"/>
       <c r="I7" s="116">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
-        <v>44287</v>
+        <v>44314</v>
       </c>
       <c r="J7" s="117">
         <f ca="1">I7+1</f>
-        <v>44288</v>
+        <v>44315</v>
       </c>
       <c r="K7" s="117">
         <f t="shared" ref="K7:AX7" ca="1" si="0">J7+1</f>
-        <v>44289</v>
+        <v>44316</v>
       </c>
       <c r="L7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44290</v>
+        <v>44317</v>
       </c>
       <c r="M7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44291</v>
+        <v>44318</v>
       </c>
       <c r="N7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44292</v>
+        <v>44319</v>
       </c>
       <c r="O7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44293</v>
+        <v>44320</v>
       </c>
       <c r="P7" s="117">
         <f ca="1">O7+1</f>
-        <v>44294</v>
+        <v>44321</v>
       </c>
       <c r="Q7" s="117">
         <f ca="1">P7+1</f>
-        <v>44295</v>
+        <v>44322</v>
       </c>
       <c r="R7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44296</v>
+        <v>44323</v>
       </c>
       <c r="S7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44297</v>
+        <v>44324</v>
       </c>
       <c r="T7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44298</v>
+        <v>44325</v>
       </c>
       <c r="U7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44299</v>
+        <v>44326</v>
       </c>
       <c r="V7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44300</v>
+        <v>44327</v>
       </c>
       <c r="W7" s="117">
         <f ca="1">V7+1</f>
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="X7" s="117">
         <f ca="1">W7+1</f>
-        <v>44302</v>
+        <v>44329</v>
       </c>
       <c r="Y7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44303</v>
+        <v>44330</v>
       </c>
       <c r="Z7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44304</v>
+        <v>44331</v>
       </c>
       <c r="AA7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44305</v>
+        <v>44332</v>
       </c>
       <c r="AB7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44306</v>
+        <v>44333</v>
       </c>
       <c r="AC7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44307</v>
+        <v>44334</v>
       </c>
       <c r="AD7" s="117">
         <f ca="1">AC7+1</f>
-        <v>44308</v>
+        <v>44335</v>
       </c>
       <c r="AE7" s="117">
         <f ca="1">AD7+1</f>
-        <v>44309</v>
+        <v>44336</v>
       </c>
       <c r="AF7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44310</v>
+        <v>44337</v>
       </c>
       <c r="AG7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44311</v>
+        <v>44338</v>
       </c>
       <c r="AH7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44312</v>
+        <v>44339</v>
       </c>
       <c r="AI7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44313</v>
+        <v>44340</v>
       </c>
       <c r="AJ7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44314</v>
+        <v>44341</v>
       </c>
       <c r="AK7" s="117">
         <f ca="1">AJ7+1</f>
-        <v>44315</v>
+        <v>44342</v>
       </c>
       <c r="AL7" s="117">
         <f ca="1">AK7+1</f>
-        <v>44316</v>
+        <v>44343</v>
       </c>
       <c r="AM7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44317</v>
+        <v>44344</v>
       </c>
       <c r="AN7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44318</v>
+        <v>44345</v>
       </c>
       <c r="AO7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44319</v>
+        <v>44346</v>
       </c>
       <c r="AP7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44320</v>
+        <v>44347</v>
       </c>
       <c r="AQ7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44321</v>
+        <v>44348</v>
       </c>
       <c r="AR7" s="117">
         <f ca="1">AQ7+1</f>
-        <v>44322</v>
+        <v>44349</v>
       </c>
       <c r="AS7" s="117">
         <f ca="1">AR7+1</f>
-        <v>44323</v>
+        <v>44350</v>
       </c>
       <c r="AT7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44324</v>
+        <v>44351</v>
       </c>
       <c r="AU7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44325</v>
+        <v>44352</v>
       </c>
       <c r="AV7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44326</v>
+        <v>44353</v>
       </c>
       <c r="AW7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44327</v>
+        <v>44354</v>
       </c>
       <c r="AX7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44328</v>
+        <v>44355</v>
       </c>
       <c r="AY7" s="117">
         <f t="shared" ref="AY7:BL7" ca="1" si="1">AX7+1</f>
-        <v>44329</v>
+        <v>44356</v>
       </c>
       <c r="AZ7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44330</v>
+        <v>44357</v>
       </c>
       <c r="BA7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44331</v>
+        <v>44358</v>
       </c>
       <c r="BB7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44332</v>
+        <v>44359</v>
       </c>
       <c r="BC7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44333</v>
+        <v>44360</v>
       </c>
       <c r="BD7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44334</v>
+        <v>44361</v>
       </c>
       <c r="BE7" s="118">
         <f t="shared" ca="1" si="1"/>
-        <v>44335</v>
+        <v>44362</v>
       </c>
       <c r="BF7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44336</v>
+        <v>44363</v>
       </c>
       <c r="BG7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44337</v>
+        <v>44364</v>
       </c>
       <c r="BH7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44338</v>
+        <v>44365</v>
       </c>
       <c r="BI7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44339</v>
+        <v>44366</v>
       </c>
       <c r="BJ7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44340</v>
+        <v>44367</v>
       </c>
       <c r="BK7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44341</v>
+        <v>44368</v>
       </c>
       <c r="BL7" s="118">
         <f t="shared" ca="1" si="1"/>
-        <v>44342</v>
+        <v>44369</v>
       </c>
       <c r="BM7" s="99"/>
     </row>
-    <row r="8" spans="1:68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:68" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10"/>
       <c r="B8" s="95"/>
       <c r="C8" s="95"/>
@@ -3934,7 +4009,7 @@
       <c r="BL8" s="123"/>
       <c r="BM8" s="99"/>
     </row>
-    <row r="9" spans="1:68" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:68" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10"/>
       <c r="B9" s="132" t="s">
         <v>23</v>
@@ -3957,15 +4032,15 @@
       <c r="H9" s="105"/>
       <c r="I9" s="124" t="str">
         <f t="shared" ref="I9:BL9" ca="1" si="2">LEFT(TEXT(I7,"ddd"),1)</f>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="J9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="K9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>F</v>
       </c>
       <c r="L9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3973,27 +4048,27 @@
       </c>
       <c r="M9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="N9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="O9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="P9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="Q9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="R9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>F</v>
       </c>
       <c r="S9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4001,27 +4076,27 @@
       </c>
       <c r="T9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="U9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="V9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="W9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="X9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="Y9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>F</v>
       </c>
       <c r="Z9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4029,27 +4104,27 @@
       </c>
       <c r="AA9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="AB9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="AC9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AD9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="AE9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="AF9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>F</v>
       </c>
       <c r="AG9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4057,27 +4132,27 @@
       </c>
       <c r="AH9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="AI9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="AJ9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AK9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="AL9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="AM9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>F</v>
       </c>
       <c r="AN9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4085,27 +4160,27 @@
       </c>
       <c r="AO9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="AP9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="AQ9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AR9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="AS9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="AT9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>F</v>
       </c>
       <c r="AU9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4113,27 +4188,27 @@
       </c>
       <c r="AV9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="AW9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="AX9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AY9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="AZ9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="BA9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>F</v>
       </c>
       <c r="BB9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4141,27 +4216,27 @@
       </c>
       <c r="BC9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="BD9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="BE9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="BF9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="BG9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="BH9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>F</v>
       </c>
       <c r="BI9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4169,19 +4244,19 @@
       </c>
       <c r="BJ9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="BK9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="BL9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="BM9" s="99"/>
     </row>
-    <row r="10" spans="1:68" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:68" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="18"/>
       <c r="C10" s="14"/>
       <c r="D10" s="13"/>
@@ -4247,7 +4322,7 @@
       <c r="BL10" s="42"/>
       <c r="BM10" s="99"/>
     </row>
-    <row r="11" spans="1:68" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:68" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10"/>
       <c r="B11" s="134" t="s">
         <v>30</v>
@@ -4485,7 +4560,7 @@
       <c r="BM11" s="21"/>
       <c r="BP11" s="47"/>
     </row>
-    <row r="12" spans="1:68" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:68" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10"/>
       <c r="B12" s="71" t="s">
         <v>3</v>
@@ -4501,7 +4576,7 @@
       </c>
       <c r="F12" s="69">
         <f ca="1">TODAY()</f>
-        <v>44286</v>
+        <v>44313</v>
       </c>
       <c r="G12" s="70">
         <v>3</v>
@@ -4733,7 +4808,7 @@
       </c>
       <c r="BM12" s="21"/>
     </row>
-    <row r="13" spans="1:68" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:68" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10"/>
       <c r="B13" s="71" t="s">
         <v>4</v>
@@ -4745,7 +4820,7 @@
       <c r="E13" s="68"/>
       <c r="F13" s="69">
         <f ca="1">TODAY()+5</f>
-        <v>44291</v>
+        <v>44318</v>
       </c>
       <c r="G13" s="70">
         <v>1</v>
@@ -4977,7 +5052,7 @@
       </c>
       <c r="BM13" s="21"/>
     </row>
-    <row r="14" spans="1:68" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:68" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="71" t="s">
         <v>0</v>
@@ -4991,7 +5066,7 @@
       </c>
       <c r="F14" s="69">
         <f ca="1">F12-3</f>
-        <v>44283</v>
+        <v>44310</v>
       </c>
       <c r="G14" s="70">
         <v>10</v>
@@ -5223,7 +5298,7 @@
       </c>
       <c r="BM14" s="21"/>
     </row>
-    <row r="15" spans="1:68" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:68" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="71" t="s">
         <v>1</v>
@@ -5235,7 +5310,7 @@
       <c r="E15" s="68"/>
       <c r="F15" s="69">
         <f ca="1">F12+20</f>
-        <v>44306</v>
+        <v>44333</v>
       </c>
       <c r="G15" s="70">
         <v>1</v>
@@ -5467,7 +5542,7 @@
       </c>
       <c r="BM15" s="21"/>
     </row>
-    <row r="16" spans="1:68" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:68" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="71" t="s">
         <v>2</v>
@@ -5481,7 +5556,7 @@
       </c>
       <c r="F16" s="69">
         <f ca="1">F12+6</f>
-        <v>44292</v>
+        <v>44319</v>
       </c>
       <c r="G16" s="70">
         <v>6</v>
@@ -5713,7 +5788,7 @@
       </c>
       <c r="BM16" s="21"/>
     </row>
-    <row r="17" spans="1:65" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:65" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10"/>
       <c r="B17" s="134" t="s">
         <v>31</v>
@@ -5950,7 +6025,7 @@
       </c>
       <c r="BM17" s="21"/>
     </row>
-    <row r="18" spans="1:65" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:65" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10"/>
       <c r="B18" s="71" t="s">
         <v>3</v>
@@ -5964,7 +6039,7 @@
       </c>
       <c r="F18" s="69">
         <f ca="1">F12+6</f>
-        <v>44292</v>
+        <v>44319</v>
       </c>
       <c r="G18" s="70">
         <v>13</v>
@@ -6196,7 +6271,7 @@
       </c>
       <c r="BM18" s="21"/>
     </row>
-    <row r="19" spans="1:65" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:65" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="71" t="s">
         <v>4</v>
@@ -6210,7 +6285,7 @@
       </c>
       <c r="F19" s="69">
         <f ca="1">F18+2</f>
-        <v>44294</v>
+        <v>44321</v>
       </c>
       <c r="G19" s="70">
         <v>9</v>
@@ -6442,7 +6517,7 @@
       </c>
       <c r="BM19" s="21"/>
     </row>
-    <row r="20" spans="1:65" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:65" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9"/>
       <c r="B20" s="71" t="s">
         <v>0</v>
@@ -6456,7 +6531,7 @@
       </c>
       <c r="F20" s="69">
         <f ca="1">F19+5</f>
-        <v>44299</v>
+        <v>44326</v>
       </c>
       <c r="G20" s="70">
         <v>11</v>
@@ -6688,7 +6763,7 @@
       </c>
       <c r="BM20" s="21"/>
     </row>
-    <row r="21" spans="1:65" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:65" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9"/>
       <c r="B21" s="71" t="s">
         <v>1</v>
@@ -6700,7 +6775,7 @@
       <c r="E21" s="68"/>
       <c r="F21" s="69">
         <f ca="1">F20+2</f>
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="G21" s="70">
         <v>1</v>
@@ -6932,7 +7007,7 @@
       </c>
       <c r="BM21" s="21"/>
     </row>
-    <row r="22" spans="1:65" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:65" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9"/>
       <c r="B22" s="71" t="s">
         <v>2</v>
@@ -6942,7 +7017,7 @@
       <c r="E22" s="68"/>
       <c r="F22" s="69">
         <f ca="1">F21+1</f>
-        <v>44302</v>
+        <v>44329</v>
       </c>
       <c r="G22" s="70">
         <v>24</v>
@@ -7174,7 +7249,7 @@
       </c>
       <c r="BM22" s="21"/>
     </row>
-    <row r="23" spans="1:65" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:65" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9"/>
       <c r="B23" s="134" t="s">
         <v>32</v>
@@ -7411,7 +7486,7 @@
       </c>
       <c r="BM23" s="21"/>
     </row>
-    <row r="24" spans="1:65" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:65" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
       <c r="B24" s="71" t="s">
         <v>3</v>
@@ -7423,7 +7498,7 @@
       <c r="E24" s="68"/>
       <c r="F24" s="69">
         <f ca="1">F12+15</f>
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="G24" s="70">
         <v>4</v>
@@ -7655,7 +7730,7 @@
       </c>
       <c r="BM24" s="21"/>
     </row>
-    <row r="25" spans="1:65" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:65" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="9"/>
       <c r="B25" s="71" t="s">
         <v>4</v>
@@ -7667,7 +7742,7 @@
       <c r="E25" s="68"/>
       <c r="F25" s="69">
         <f ca="1">F24+3</f>
-        <v>44304</v>
+        <v>44331</v>
       </c>
       <c r="G25" s="70">
         <v>14</v>
@@ -7899,7 +7974,7 @@
       </c>
       <c r="BM25" s="21"/>
     </row>
-    <row r="26" spans="1:65" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:65" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9"/>
       <c r="B26" s="71" t="s">
         <v>0</v>
@@ -7911,7 +7986,7 @@
       <c r="E26" s="68"/>
       <c r="F26" s="69">
         <f ca="1">F25+15</f>
-        <v>44319</v>
+        <v>44346</v>
       </c>
       <c r="G26" s="70">
         <v>6</v>
@@ -8143,7 +8218,7 @@
       </c>
       <c r="BM26" s="21"/>
     </row>
-    <row r="27" spans="1:65" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:65" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="9"/>
       <c r="B27" s="71" t="s">
         <v>1</v>
@@ -8155,7 +8230,7 @@
       <c r="E27" s="68"/>
       <c r="F27" s="69">
         <f ca="1">F21+22</f>
-        <v>44323</v>
+        <v>44350</v>
       </c>
       <c r="G27" s="70">
         <v>3</v>
@@ -8387,7 +8462,7 @@
       </c>
       <c r="BM27" s="21"/>
     </row>
-    <row r="28" spans="1:65" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:65" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="9"/>
       <c r="B28" s="71" t="s">
         <v>2</v>
@@ -8399,7 +8474,7 @@
       <c r="E28" s="68"/>
       <c r="F28" s="69">
         <f ca="1">F16</f>
-        <v>44292</v>
+        <v>44319</v>
       </c>
       <c r="G28" s="70">
         <v>19</v>
@@ -8631,7 +8706,7 @@
       </c>
       <c r="BM28" s="21"/>
     </row>
-    <row r="29" spans="1:65" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:65" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="9"/>
       <c r="B29" s="134" t="s">
         <v>33</v>
@@ -8868,7 +8943,7 @@
       </c>
       <c r="BM29" s="21"/>
     </row>
-    <row r="30" spans="1:65" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:65" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="9"/>
       <c r="B30" s="71" t="s">
         <v>3</v>
@@ -8878,7 +8953,7 @@
       <c r="E30" s="68"/>
       <c r="F30" s="69">
         <f ca="1">F27+3</f>
-        <v>44326</v>
+        <v>44353</v>
       </c>
       <c r="G30" s="70">
         <v>15</v>
@@ -9110,7 +9185,7 @@
       </c>
       <c r="BM30" s="21"/>
     </row>
-    <row r="31" spans="1:65" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:65" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="9"/>
       <c r="B31" s="71" t="s">
         <v>4</v>
@@ -9120,7 +9195,7 @@
       <c r="E31" s="68"/>
       <c r="F31" s="69">
         <f ca="1">F30+14</f>
-        <v>44340</v>
+        <v>44367</v>
       </c>
       <c r="G31" s="70">
         <v>5</v>
@@ -9352,7 +9427,7 @@
       </c>
       <c r="BM31" s="21"/>
     </row>
-    <row r="32" spans="1:65" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:65" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
       <c r="B32" s="71" t="s">
         <v>0</v>
@@ -9364,7 +9439,7 @@
       <c r="E32" s="68"/>
       <c r="F32" s="69">
         <f ca="1">F31+42</f>
-        <v>44382</v>
+        <v>44409</v>
       </c>
       <c r="G32" s="70">
         <v>1</v>
@@ -9596,7 +9671,7 @@
       </c>
       <c r="BM32" s="21"/>
     </row>
-    <row r="33" spans="1:65" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:65" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="9"/>
       <c r="B33" s="71" t="s">
         <v>1</v>
@@ -9833,7 +9908,7 @@
       </c>
       <c r="BM33" s="21"/>
     </row>
-    <row r="34" spans="1:65" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:65" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="9"/>
       <c r="B34" s="71" t="s">
         <v>2</v>
@@ -10070,7 +10145,7 @@
       </c>
       <c r="BM34" s="21"/>
     </row>
-    <row r="35" spans="1:65" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:65" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="9"/>
       <c r="B35" s="71"/>
       <c r="C35" s="67"/>
@@ -10305,7 +10380,7 @@
       </c>
       <c r="BM35" s="106"/>
     </row>
-    <row r="36" spans="1:65" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:65" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="10"/>
       <c r="B36" s="136" t="s">
         <v>20</v>
@@ -10374,12 +10449,12 @@
       <c r="BL36" s="104"/>
       <c r="BM36" s="97"/>
     </row>
-    <row r="37" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D37" s="4"/>
       <c r="G37" s="11"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D38" s="5"/>
     </row>
   </sheetData>
@@ -10408,56 +10483,56 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL36">
-    <cfRule type="expression" dxfId="56" priority="1">
+    <cfRule type="expression" dxfId="57" priority="1">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:AM6">
-    <cfRule type="expression" dxfId="55" priority="4">
+    <cfRule type="expression" dxfId="56" priority="4">
       <formula>I$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:BL6">
-    <cfRule type="expression" dxfId="54" priority="3">
+    <cfRule type="expression" dxfId="55" priority="3">
       <formula>AND(J$7&lt;=EOMONTH($I$7,2),J$7&gt;EOMONTH($I$7,0),J$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:BL6">
-    <cfRule type="expression" dxfId="53" priority="2">
+    <cfRule type="expression" dxfId="54" priority="2">
       <formula>AND(I$7&lt;=EOMONTH($I$7,1),I$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:BL35">
-    <cfRule type="expression" dxfId="52" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="7" stopIfTrue="1">
       <formula>AND($C10="Low Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="8" stopIfTrue="1">
       <formula>AND($C10="High Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="9" stopIfTrue="1">
       <formula>AND($C10="On Track",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="10" stopIfTrue="1">
       <formula>AND($C10="Med Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="11" stopIfTrue="1">
       <formula>AND(LEN($C10)=0,I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:BL36">
-    <cfRule type="expression" dxfId="47" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="13" stopIfTrue="1">
       <formula>AND(#REF!="Low Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="14" stopIfTrue="1">
       <formula>AND(#REF!="High Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="15" stopIfTrue="1">
       <formula>AND(#REF!="On Track",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="16" stopIfTrue="1">
       <formula>AND(#REF!="Med Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="17" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10500,7 +10575,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>50800</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>95250</xdr:rowOff>
                   </from>
@@ -10508,7 +10583,7 @@
                     <xdr:col>63</xdr:col>
                     <xdr:colOff>342900</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>352425</xdr:rowOff>
+                    <xdr:rowOff>355600</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10592,23 +10667,23 @@
   <sheetViews>
     <sheetView showGridLines="0" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="12" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="2.5703125" style="12" customWidth="1"/>
-    <col min="9" max="64" width="3.5703125" style="12" customWidth="1"/>
-    <col min="65" max="65" width="2.5703125" style="12" customWidth="1"/>
-    <col min="66" max="16384" width="8.85546875" style="12"/>
+    <col min="1" max="1" width="4.81640625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="30.81640625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.54296875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="15.81640625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="2.54296875" style="12" customWidth="1"/>
+    <col min="9" max="64" width="3.54296875" style="12" customWidth="1"/>
+    <col min="65" max="65" width="2.54296875" style="12" customWidth="1"/>
+    <col min="66" max="16384" width="8.81640625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:68" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:68" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:68" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10"/>
       <c r="B2" s="152" t="s">
         <v>5</v>
@@ -10677,7 +10752,7 @@
       <c r="BL2" s="23"/>
       <c r="BM2" s="23"/>
     </row>
-    <row r="3" spans="1:68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:68" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10"/>
       <c r="B3" s="48"/>
       <c r="C3" s="49"/>
@@ -10744,7 +10819,7 @@
       <c r="BL3" s="37"/>
       <c r="BM3" s="35"/>
     </row>
-    <row r="4" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10"/>
       <c r="B4" s="62" t="s">
         <v>22</v>
@@ -10825,7 +10900,7 @@
       <c r="BL4" s="35"/>
       <c r="BM4" s="35"/>
     </row>
-    <row r="5" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10"/>
       <c r="B5" s="63" t="s">
         <v>21</v>
@@ -10894,14 +10969,14 @@
       <c r="BL5" s="37"/>
       <c r="BM5" s="35"/>
     </row>
-    <row r="6" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="10"/>
       <c r="B6" s="56" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="39" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">IFERROR(IF(MIN(Milestones435[Start])=0,TODAY(),B11(Milestones435[Start])),TODAY())</f>
-        <v>44286</v>
+        <v>44313</v>
       </c>
       <c r="D6" s="60"/>
       <c r="E6" s="35"/>
@@ -10920,7 +10995,7 @@
       <c r="O6" s="112"/>
       <c r="P6" s="112" t="str">
         <f ca="1">IF(TEXT(P7,"mmmm")=I6,"",TEXT(P7,"mmmm"))</f>
-        <v/>
+        <v>May</v>
       </c>
       <c r="Q6" s="112"/>
       <c r="R6" s="112"/>
@@ -10960,7 +11035,7 @@
       <c r="AQ6" s="112"/>
       <c r="AR6" s="112" t="str">
         <f ca="1">IF(OR(TEXT(AR7,"mmmm")=AK6,TEXT(AR7,"mmmm")=AD6,TEXT(AR7,"mmmm")=W6,TEXT(AR7,"mmmm")=P6),"",TEXT(AR7,"mmmm"))</f>
-        <v>May</v>
+        <v>June</v>
       </c>
       <c r="AS6" s="112"/>
       <c r="AT6" s="112"/>
@@ -10990,7 +11065,7 @@
       <c r="BL6" s="73"/>
       <c r="BM6" s="35"/>
     </row>
-    <row r="7" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10"/>
       <c r="B7" s="56" t="s">
         <v>12</v>
@@ -11005,231 +11080,231 @@
       <c r="H7" s="38"/>
       <c r="I7" s="114">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
-        <v>44287</v>
+        <v>44314</v>
       </c>
       <c r="J7" s="19">
         <f ca="1">I7+1</f>
-        <v>44288</v>
+        <v>44315</v>
       </c>
       <c r="K7" s="19">
         <f t="shared" ref="K7:AX7" ca="1" si="0">J7+1</f>
-        <v>44289</v>
+        <v>44316</v>
       </c>
       <c r="L7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44290</v>
+        <v>44317</v>
       </c>
       <c r="M7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44291</v>
+        <v>44318</v>
       </c>
       <c r="N7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44292</v>
+        <v>44319</v>
       </c>
       <c r="O7" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>44293</v>
+        <v>44320</v>
       </c>
       <c r="P7" s="19">
         <f ca="1">O7+1</f>
-        <v>44294</v>
+        <v>44321</v>
       </c>
       <c r="Q7" s="19">
         <f ca="1">P7+1</f>
-        <v>44295</v>
+        <v>44322</v>
       </c>
       <c r="R7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44296</v>
+        <v>44323</v>
       </c>
       <c r="S7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44297</v>
+        <v>44324</v>
       </c>
       <c r="T7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44298</v>
+        <v>44325</v>
       </c>
       <c r="U7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44299</v>
+        <v>44326</v>
       </c>
       <c r="V7" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>44300</v>
+        <v>44327</v>
       </c>
       <c r="W7" s="19">
         <f ca="1">V7+1</f>
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="X7" s="19">
         <f ca="1">W7+1</f>
-        <v>44302</v>
+        <v>44329</v>
       </c>
       <c r="Y7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44303</v>
+        <v>44330</v>
       </c>
       <c r="Z7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44304</v>
+        <v>44331</v>
       </c>
       <c r="AA7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44305</v>
+        <v>44332</v>
       </c>
       <c r="AB7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44306</v>
+        <v>44333</v>
       </c>
       <c r="AC7" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>44307</v>
+        <v>44334</v>
       </c>
       <c r="AD7" s="19">
         <f ca="1">AC7+1</f>
-        <v>44308</v>
+        <v>44335</v>
       </c>
       <c r="AE7" s="19">
         <f ca="1">AD7+1</f>
-        <v>44309</v>
+        <v>44336</v>
       </c>
       <c r="AF7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44310</v>
+        <v>44337</v>
       </c>
       <c r="AG7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44311</v>
+        <v>44338</v>
       </c>
       <c r="AH7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44312</v>
+        <v>44339</v>
       </c>
       <c r="AI7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44313</v>
+        <v>44340</v>
       </c>
       <c r="AJ7" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>44314</v>
+        <v>44341</v>
       </c>
       <c r="AK7" s="19">
         <f ca="1">AJ7+1</f>
-        <v>44315</v>
+        <v>44342</v>
       </c>
       <c r="AL7" s="19">
         <f ca="1">AK7+1</f>
-        <v>44316</v>
+        <v>44343</v>
       </c>
       <c r="AM7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44317</v>
+        <v>44344</v>
       </c>
       <c r="AN7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44318</v>
+        <v>44345</v>
       </c>
       <c r="AO7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44319</v>
+        <v>44346</v>
       </c>
       <c r="AP7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44320</v>
+        <v>44347</v>
       </c>
       <c r="AQ7" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>44321</v>
+        <v>44348</v>
       </c>
       <c r="AR7" s="19">
         <f ca="1">AQ7+1</f>
-        <v>44322</v>
+        <v>44349</v>
       </c>
       <c r="AS7" s="19">
         <f ca="1">AR7+1</f>
-        <v>44323</v>
+        <v>44350</v>
       </c>
       <c r="AT7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44324</v>
+        <v>44351</v>
       </c>
       <c r="AU7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44325</v>
+        <v>44352</v>
       </c>
       <c r="AV7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44326</v>
+        <v>44353</v>
       </c>
       <c r="AW7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44327</v>
+        <v>44354</v>
       </c>
       <c r="AX7" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>44328</v>
+        <v>44355</v>
       </c>
       <c r="AY7" s="19">
         <f t="shared" ref="AY7:BL7" ca="1" si="1">AX7+1</f>
-        <v>44329</v>
+        <v>44356</v>
       </c>
       <c r="AZ7" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>44330</v>
+        <v>44357</v>
       </c>
       <c r="BA7" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>44331</v>
+        <v>44358</v>
       </c>
       <c r="BB7" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>44332</v>
+        <v>44359</v>
       </c>
       <c r="BC7" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>44333</v>
+        <v>44360</v>
       </c>
       <c r="BD7" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>44334</v>
+        <v>44361</v>
       </c>
       <c r="BE7" s="72">
         <f t="shared" ca="1" si="1"/>
-        <v>44335</v>
+        <v>44362</v>
       </c>
       <c r="BF7" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>44336</v>
+        <v>44363</v>
       </c>
       <c r="BG7" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>44337</v>
+        <v>44364</v>
       </c>
       <c r="BH7" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>44338</v>
+        <v>44365</v>
       </c>
       <c r="BI7" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>44339</v>
+        <v>44366</v>
       </c>
       <c r="BJ7" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>44340</v>
+        <v>44367</v>
       </c>
       <c r="BK7" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>44341</v>
+        <v>44368</v>
       </c>
       <c r="BL7" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44342</v>
+        <v>44369</v>
       </c>
       <c r="BM7" s="35"/>
     </row>
-    <row r="8" spans="1:68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:68" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10"/>
       <c r="B8" s="61"/>
       <c r="C8" s="61"/>
@@ -11296,7 +11371,7 @@
       <c r="BL8" s="45"/>
       <c r="BM8" s="35"/>
     </row>
-    <row r="9" spans="1:68" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:68" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10"/>
       <c r="B9" s="137" t="s">
         <v>23</v>
@@ -11319,15 +11394,15 @@
       <c r="H9" s="55"/>
       <c r="I9" s="43" t="str">
         <f t="shared" ref="I9:BL9" ca="1" si="2">LEFT(TEXT(I7,"ddd"),1)</f>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="J9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="K9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>F</v>
       </c>
       <c r="L9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -11335,27 +11410,27 @@
       </c>
       <c r="M9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="N9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="O9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="P9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="Q9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="R9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>F</v>
       </c>
       <c r="S9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -11363,27 +11438,27 @@
       </c>
       <c r="T9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="U9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="V9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="W9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="X9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="Y9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>F</v>
       </c>
       <c r="Z9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -11391,27 +11466,27 @@
       </c>
       <c r="AA9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="AB9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="AC9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AD9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="AE9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="AF9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>F</v>
       </c>
       <c r="AG9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -11419,27 +11494,27 @@
       </c>
       <c r="AH9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="AI9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="AJ9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AK9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="AL9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="AM9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>F</v>
       </c>
       <c r="AN9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -11447,27 +11522,27 @@
       </c>
       <c r="AO9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="AP9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="AQ9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AR9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="AS9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="AT9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>F</v>
       </c>
       <c r="AU9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -11475,27 +11550,27 @@
       </c>
       <c r="AV9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="AW9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="AX9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AY9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="AZ9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="BA9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>F</v>
       </c>
       <c r="BB9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -11503,27 +11578,27 @@
       </c>
       <c r="BC9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="BD9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="BE9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="BF9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="BG9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="BH9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>F</v>
       </c>
       <c r="BI9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -11531,19 +11606,19 @@
       </c>
       <c r="BJ9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="BK9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="BL9" s="43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="BM9" s="35"/>
     </row>
-    <row r="10" spans="1:68" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:68" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="18"/>
       <c r="C10" s="14"/>
       <c r="D10" s="13"/>
@@ -11609,7 +11684,7 @@
       <c r="BL10" s="42"/>
       <c r="BM10" s="35"/>
     </row>
-    <row r="11" spans="1:68" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:68" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10"/>
       <c r="B11" s="139" t="s">
         <v>30</v>
@@ -11847,7 +11922,7 @@
       <c r="BM11" s="31"/>
       <c r="BP11" s="47"/>
     </row>
-    <row r="12" spans="1:68" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:68" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10"/>
       <c r="B12" s="28" t="s">
         <v>3</v>
@@ -11863,7 +11938,7 @@
       </c>
       <c r="F12" s="26">
         <f ca="1">TODAY()</f>
-        <v>44286</v>
+        <v>44313</v>
       </c>
       <c r="G12" s="27">
         <v>3</v>
@@ -12095,7 +12170,7 @@
       </c>
       <c r="BM12" s="31"/>
     </row>
-    <row r="13" spans="1:68" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:68" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10"/>
       <c r="B13" s="28" t="s">
         <v>4</v>
@@ -12107,7 +12182,7 @@
       <c r="E13" s="25"/>
       <c r="F13" s="26">
         <f ca="1">TODAY()+5</f>
-        <v>44291</v>
+        <v>44318</v>
       </c>
       <c r="G13" s="27">
         <v>1</v>
@@ -12339,7 +12414,7 @@
       </c>
       <c r="BM13" s="31"/>
     </row>
-    <row r="14" spans="1:68" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:68" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="28" t="s">
         <v>0</v>
@@ -12353,7 +12428,7 @@
       </c>
       <c r="F14" s="26">
         <f ca="1">F12-3</f>
-        <v>44283</v>
+        <v>44310</v>
       </c>
       <c r="G14" s="27">
         <v>10</v>
@@ -12585,7 +12660,7 @@
       </c>
       <c r="BM14" s="31"/>
     </row>
-    <row r="15" spans="1:68" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:68" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="28" t="s">
         <v>1</v>
@@ -12597,7 +12672,7 @@
       <c r="E15" s="25"/>
       <c r="F15" s="26">
         <f ca="1">F12+20</f>
-        <v>44306</v>
+        <v>44333</v>
       </c>
       <c r="G15" s="27">
         <v>1</v>
@@ -12829,7 +12904,7 @@
       </c>
       <c r="BM15" s="31"/>
     </row>
-    <row r="16" spans="1:68" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:68" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="28" t="s">
         <v>2</v>
@@ -12843,7 +12918,7 @@
       </c>
       <c r="F16" s="26">
         <f ca="1">F12+6</f>
-        <v>44292</v>
+        <v>44319</v>
       </c>
       <c r="G16" s="27">
         <v>6</v>
@@ -13075,7 +13150,7 @@
       </c>
       <c r="BM16" s="31"/>
     </row>
-    <row r="17" spans="1:65" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:65" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10"/>
       <c r="B17" s="139" t="s">
         <v>31</v>
@@ -13312,7 +13387,7 @@
       </c>
       <c r="BM17" s="31"/>
     </row>
-    <row r="18" spans="1:65" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:65" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10"/>
       <c r="B18" s="28" t="s">
         <v>3</v>
@@ -13326,7 +13401,7 @@
       </c>
       <c r="F18" s="26">
         <f ca="1">F12+6</f>
-        <v>44292</v>
+        <v>44319</v>
       </c>
       <c r="G18" s="27">
         <v>13</v>
@@ -13558,7 +13633,7 @@
       </c>
       <c r="BM18" s="31"/>
     </row>
-    <row r="19" spans="1:65" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:65" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="28" t="s">
         <v>4</v>
@@ -13572,7 +13647,7 @@
       </c>
       <c r="F19" s="26">
         <f ca="1">F18+2</f>
-        <v>44294</v>
+        <v>44321</v>
       </c>
       <c r="G19" s="27">
         <v>9</v>
@@ -13804,7 +13879,7 @@
       </c>
       <c r="BM19" s="31"/>
     </row>
-    <row r="20" spans="1:65" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:65" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9"/>
       <c r="B20" s="28" t="s">
         <v>0</v>
@@ -13818,7 +13893,7 @@
       </c>
       <c r="F20" s="26">
         <f ca="1">F19+5</f>
-        <v>44299</v>
+        <v>44326</v>
       </c>
       <c r="G20" s="27">
         <v>11</v>
@@ -14050,7 +14125,7 @@
       </c>
       <c r="BM20" s="31"/>
     </row>
-    <row r="21" spans="1:65" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:65" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9"/>
       <c r="B21" s="28" t="s">
         <v>1</v>
@@ -14062,7 +14137,7 @@
       <c r="E21" s="25"/>
       <c r="F21" s="26">
         <f ca="1">F20+2</f>
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="G21" s="27">
         <v>1</v>
@@ -14294,7 +14369,7 @@
       </c>
       <c r="BM21" s="31"/>
     </row>
-    <row r="22" spans="1:65" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:65" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9"/>
       <c r="B22" s="28" t="s">
         <v>2</v>
@@ -14304,7 +14379,7 @@
       <c r="E22" s="25"/>
       <c r="F22" s="26">
         <f ca="1">F21+1</f>
-        <v>44302</v>
+        <v>44329</v>
       </c>
       <c r="G22" s="27">
         <v>24</v>
@@ -14536,7 +14611,7 @@
       </c>
       <c r="BM22" s="31"/>
     </row>
-    <row r="23" spans="1:65" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:65" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9"/>
       <c r="B23" s="139" t="s">
         <v>32</v>
@@ -14773,7 +14848,7 @@
       </c>
       <c r="BM23" s="31"/>
     </row>
-    <row r="24" spans="1:65" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:65" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
       <c r="B24" s="28" t="s">
         <v>3</v>
@@ -14785,7 +14860,7 @@
       <c r="E24" s="25"/>
       <c r="F24" s="26">
         <f ca="1">F12+15</f>
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="G24" s="27">
         <v>4</v>
@@ -15017,7 +15092,7 @@
       </c>
       <c r="BM24" s="31"/>
     </row>
-    <row r="25" spans="1:65" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:65" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="9"/>
       <c r="B25" s="28" t="s">
         <v>4</v>
@@ -15029,7 +15104,7 @@
       <c r="E25" s="25"/>
       <c r="F25" s="26">
         <f ca="1">F24+3</f>
-        <v>44304</v>
+        <v>44331</v>
       </c>
       <c r="G25" s="27">
         <v>14</v>
@@ -15261,7 +15336,7 @@
       </c>
       <c r="BM25" s="31"/>
     </row>
-    <row r="26" spans="1:65" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:65" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9"/>
       <c r="B26" s="28" t="s">
         <v>0</v>
@@ -15273,7 +15348,7 @@
       <c r="E26" s="25"/>
       <c r="F26" s="26">
         <f ca="1">F25+15</f>
-        <v>44319</v>
+        <v>44346</v>
       </c>
       <c r="G26" s="27">
         <v>6</v>
@@ -15505,7 +15580,7 @@
       </c>
       <c r="BM26" s="31"/>
     </row>
-    <row r="27" spans="1:65" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:65" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="9"/>
       <c r="B27" s="28" t="s">
         <v>1</v>
@@ -15517,7 +15592,7 @@
       <c r="E27" s="25"/>
       <c r="F27" s="26">
         <f ca="1">F21+22</f>
-        <v>44323</v>
+        <v>44350</v>
       </c>
       <c r="G27" s="27">
         <v>3</v>
@@ -15749,7 +15824,7 @@
       </c>
       <c r="BM27" s="31"/>
     </row>
-    <row r="28" spans="1:65" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:65" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="9"/>
       <c r="B28" s="28" t="s">
         <v>2</v>
@@ -15761,7 +15836,7 @@
       <c r="E28" s="25"/>
       <c r="F28" s="26">
         <f ca="1">F16</f>
-        <v>44292</v>
+        <v>44319</v>
       </c>
       <c r="G28" s="27">
         <v>19</v>
@@ -15993,7 +16068,7 @@
       </c>
       <c r="BM28" s="31"/>
     </row>
-    <row r="29" spans="1:65" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:65" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="9"/>
       <c r="B29" s="139" t="s">
         <v>33</v>
@@ -16230,7 +16305,7 @@
       </c>
       <c r="BM29" s="31"/>
     </row>
-    <row r="30" spans="1:65" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:65" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="9"/>
       <c r="B30" s="28" t="s">
         <v>3</v>
@@ -16240,7 +16315,7 @@
       <c r="E30" s="25"/>
       <c r="F30" s="26">
         <f ca="1">F27+3</f>
-        <v>44326</v>
+        <v>44353</v>
       </c>
       <c r="G30" s="27">
         <v>15</v>
@@ -16472,7 +16547,7 @@
       </c>
       <c r="BM30" s="31"/>
     </row>
-    <row r="31" spans="1:65" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:65" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="9"/>
       <c r="B31" s="28" t="s">
         <v>4</v>
@@ -16482,7 +16557,7 @@
       <c r="E31" s="25"/>
       <c r="F31" s="26">
         <f ca="1">F30+14</f>
-        <v>44340</v>
+        <v>44367</v>
       </c>
       <c r="G31" s="27">
         <v>5</v>
@@ -16714,7 +16789,7 @@
       </c>
       <c r="BM31" s="31"/>
     </row>
-    <row r="32" spans="1:65" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:65" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
       <c r="B32" s="28" t="s">
         <v>0</v>
@@ -16726,7 +16801,7 @@
       <c r="E32" s="25"/>
       <c r="F32" s="26">
         <f ca="1">F31+42</f>
-        <v>44382</v>
+        <v>44409</v>
       </c>
       <c r="G32" s="27">
         <v>1</v>
@@ -16958,7 +17033,7 @@
       </c>
       <c r="BM32" s="31"/>
     </row>
-    <row r="33" spans="1:65" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:65" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="9"/>
       <c r="B33" s="28" t="s">
         <v>1</v>
@@ -17195,7 +17270,7 @@
       </c>
       <c r="BM33" s="31"/>
     </row>
-    <row r="34" spans="1:65" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:65" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="9"/>
       <c r="B34" s="28" t="s">
         <v>2</v>
@@ -17432,7 +17507,7 @@
       </c>
       <c r="BM34" s="31"/>
     </row>
-    <row r="35" spans="1:65" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:65" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="9"/>
       <c r="B35" s="28"/>
       <c r="C35" s="24"/>
@@ -17667,7 +17742,7 @@
       </c>
       <c r="BM35" s="75"/>
     </row>
-    <row r="36" spans="1:65" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:65" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="10"/>
       <c r="B36" s="135" t="s">
         <v>20</v>
@@ -17736,12 +17811,12 @@
       <c r="BL36" s="74"/>
       <c r="BM36" s="52"/>
     </row>
-    <row r="37" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D37" s="4"/>
       <c r="G37" s="11"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D38" s="5"/>
     </row>
   </sheetData>
@@ -17770,56 +17845,56 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL36">
-    <cfRule type="expression" dxfId="34" priority="1">
+    <cfRule type="expression" dxfId="35" priority="1">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:AM6">
-    <cfRule type="expression" dxfId="33" priority="4">
+    <cfRule type="expression" dxfId="34" priority="4">
       <formula>I$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:BL6">
-    <cfRule type="expression" dxfId="32" priority="3">
+    <cfRule type="expression" dxfId="33" priority="3">
       <formula>AND(J$7&lt;=EOMONTH($I$7,2),J$7&gt;EOMONTH($I$7,0),J$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:BL6">
-    <cfRule type="expression" dxfId="31" priority="2">
+    <cfRule type="expression" dxfId="32" priority="2">
       <formula>AND(I$7&lt;=EOMONTH($I$7,1),I$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:BL35">
-    <cfRule type="expression" dxfId="30" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="7" stopIfTrue="1">
       <formula>AND($C10="Low Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="8" stopIfTrue="1">
       <formula>AND($C10="High Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="9" stopIfTrue="1">
       <formula>AND($C10="On Track",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="10" stopIfTrue="1">
       <formula>AND($C10="Med Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="11" stopIfTrue="1">
       <formula>AND(LEN($C10)=0,I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:BL36">
-    <cfRule type="expression" dxfId="25" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="13" stopIfTrue="1">
       <formula>AND(#REF!="Low Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="14" stopIfTrue="1">
       <formula>AND(#REF!="High Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="15" stopIfTrue="1">
       <formula>AND(#REF!="On Track",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="16" stopIfTrue="1">
       <formula>AND(#REF!="Med Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="17" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17862,7 +17937,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>50800</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>95250</xdr:rowOff>
                   </from>
@@ -17870,7 +17945,7 @@
                     <xdr:col>63</xdr:col>
                     <xdr:colOff>342900</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>352425</xdr:rowOff>
+                    <xdr:rowOff>355600</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -17952,26 +18027,27 @@
   </sheetPr>
   <dimension ref="A1:BO28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="D7" zoomScale="81" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="2.5703125" style="12" customWidth="1"/>
-    <col min="8" max="63" width="3.5703125" style="12" customWidth="1"/>
-    <col min="64" max="64" width="2.5703125" style="12" customWidth="1"/>
-    <col min="65" max="16384" width="8.85546875" style="12"/>
+    <col min="1" max="1" width="4.81640625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="30.81640625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="78.1796875" style="12" customWidth="1"/>
+    <col min="8" max="8" width="4.81640625" style="12" customWidth="1"/>
+    <col min="9" max="63" width="3.54296875" style="12" customWidth="1"/>
+    <col min="64" max="64" width="2.54296875" style="12" customWidth="1"/>
+    <col min="65" max="16384" width="8.81640625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:67" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:67" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:67" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10"/>
       <c r="B2" s="156" t="s">
         <v>39</v>
@@ -18039,7 +18115,7 @@
       <c r="BK2" s="115"/>
       <c r="BL2" s="115"/>
     </row>
-    <row r="3" spans="1:67" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:67" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10"/>
       <c r="B3" s="77"/>
       <c r="C3" s="78"/>
@@ -18105,7 +18181,7 @@
       <c r="BK3" s="98"/>
       <c r="BL3" s="99"/>
     </row>
-    <row r="4" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10"/>
       <c r="B4" s="81" t="s">
         <v>38</v>
@@ -18185,7 +18261,7 @@
       <c r="BK4" s="99"/>
       <c r="BL4" s="99"/>
     </row>
-    <row r="5" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10"/>
       <c r="B5" s="87" t="s">
         <v>37</v>
@@ -18253,14 +18329,14 @@
       <c r="BK5" s="98"/>
       <c r="BL5" s="99"/>
     </row>
-    <row r="6" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="10"/>
       <c r="B6" s="89" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="90" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">IFERROR(IF(MIN(Milestones43524[Start])=0,TODAY(),B11(Milestones43524[Start])),TODAY())</f>
-        <v>44286</v>
+        <v>44313</v>
       </c>
       <c r="D6" s="84"/>
       <c r="E6" s="92"/>
@@ -18268,7 +18344,7 @@
       <c r="G6" s="84"/>
       <c r="H6" s="109" t="str">
         <f ca="1">TEXT(H7,"mmmm")</f>
-        <v>March</v>
+        <v>April</v>
       </c>
       <c r="I6" s="109"/>
       <c r="J6" s="109"/>
@@ -18278,7 +18354,7 @@
       <c r="N6" s="109"/>
       <c r="O6" s="109" t="str">
         <f ca="1">IF(TEXT(O7,"mmmm")=H6,"",TEXT(O7,"mmmm"))</f>
-        <v>April</v>
+        <v/>
       </c>
       <c r="P6" s="109"/>
       <c r="Q6" s="109"/>
@@ -18288,7 +18364,7 @@
       <c r="U6" s="109"/>
       <c r="V6" s="109" t="str">
         <f ca="1">IF(OR(TEXT(V7,"mmmm")=O6,TEXT(V7,"mmmm")=H6),"",TEXT(V7,"mmmm"))</f>
-        <v/>
+        <v>May</v>
       </c>
       <c r="W6" s="109"/>
       <c r="X6" s="109"/>
@@ -18318,7 +18394,7 @@
       <c r="AP6" s="109"/>
       <c r="AQ6" s="109" t="str">
         <f ca="1">IF(OR(TEXT(AQ7,"mmmm")=AJ6,TEXT(AQ7,"mmmm")=AC6,TEXT(AQ7,"mmmm")=V6,TEXT(AQ7,"mmmm")=O6),"",TEXT(AQ7,"mmmm"))</f>
-        <v>May</v>
+        <v/>
       </c>
       <c r="AR6" s="109"/>
       <c r="AS6" s="109"/>
@@ -18338,7 +18414,7 @@
       <c r="BD6" s="108"/>
       <c r="BE6" s="108" t="str">
         <f ca="1">IF(OR(TEXT(BE7,"mmmm")=AX6,TEXT(BE7,"mmmm")=AQ6,TEXT(BE7,"mmmm")=AJ6,TEXT(BE7,"mmmm")=AC6),"",TEXT(BE7,"mmmm"))</f>
-        <v/>
+        <v>June</v>
       </c>
       <c r="BF6" s="108"/>
       <c r="BG6" s="108"/>
@@ -18348,7 +18424,7 @@
       <c r="BK6" s="108"/>
       <c r="BL6" s="99"/>
     </row>
-    <row r="7" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10"/>
       <c r="B7" s="89" t="s">
         <v>12</v>
@@ -18362,231 +18438,231 @@
       <c r="G7" s="94"/>
       <c r="H7" s="116">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
-        <v>44286</v>
+        <v>44313</v>
       </c>
       <c r="I7" s="117">
-        <f ca="1">H7+1</f>
-        <v>44287</v>
+        <f ca="1">H7-9</f>
+        <v>44304</v>
       </c>
       <c r="J7" s="117">
         <f t="shared" ref="J7:AW7" ca="1" si="0">I7+1</f>
-        <v>44288</v>
+        <v>44305</v>
       </c>
       <c r="K7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44289</v>
+        <v>44306</v>
       </c>
       <c r="L7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44290</v>
+        <v>44307</v>
       </c>
       <c r="M7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44291</v>
+        <v>44308</v>
       </c>
       <c r="N7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44292</v>
+        <v>44309</v>
       </c>
       <c r="O7" s="117">
         <f ca="1">N7+1</f>
-        <v>44293</v>
+        <v>44310</v>
       </c>
       <c r="P7" s="117">
         <f ca="1">O7+1</f>
-        <v>44294</v>
+        <v>44311</v>
       </c>
       <c r="Q7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44295</v>
+        <v>44312</v>
       </c>
       <c r="R7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44296</v>
+        <v>44313</v>
       </c>
       <c r="S7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44297</v>
+        <v>44314</v>
       </c>
       <c r="T7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44298</v>
+        <v>44315</v>
       </c>
       <c r="U7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44299</v>
+        <v>44316</v>
       </c>
       <c r="V7" s="117">
         <f ca="1">U7+1</f>
-        <v>44300</v>
+        <v>44317</v>
       </c>
       <c r="W7" s="117">
         <f ca="1">V7+1</f>
-        <v>44301</v>
+        <v>44318</v>
       </c>
       <c r="X7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44302</v>
+        <v>44319</v>
       </c>
       <c r="Y7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44303</v>
+        <v>44320</v>
       </c>
       <c r="Z7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44304</v>
+        <v>44321</v>
       </c>
       <c r="AA7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44305</v>
+        <v>44322</v>
       </c>
       <c r="AB7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="AC7" s="117">
         <f ca="1">AB7+1</f>
-        <v>44307</v>
+        <v>44324</v>
       </c>
       <c r="AD7" s="117">
         <f ca="1">AC7+1</f>
-        <v>44308</v>
+        <v>44325</v>
       </c>
       <c r="AE7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44309</v>
+        <v>44326</v>
       </c>
       <c r="AF7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44310</v>
+        <v>44327</v>
       </c>
       <c r="AG7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44311</v>
+        <v>44328</v>
       </c>
       <c r="AH7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44312</v>
+        <v>44329</v>
       </c>
       <c r="AI7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44313</v>
+        <v>44330</v>
       </c>
       <c r="AJ7" s="117">
         <f ca="1">AI7+1</f>
-        <v>44314</v>
+        <v>44331</v>
       </c>
       <c r="AK7" s="117">
         <f ca="1">AJ7+1</f>
-        <v>44315</v>
+        <v>44332</v>
       </c>
       <c r="AL7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44316</v>
+        <v>44333</v>
       </c>
       <c r="AM7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44317</v>
+        <v>44334</v>
       </c>
       <c r="AN7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44318</v>
+        <v>44335</v>
       </c>
       <c r="AO7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44319</v>
+        <v>44336</v>
       </c>
       <c r="AP7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44320</v>
+        <v>44337</v>
       </c>
       <c r="AQ7" s="117">
         <f ca="1">AP7+1</f>
-        <v>44321</v>
+        <v>44338</v>
       </c>
       <c r="AR7" s="117">
         <f ca="1">AQ7+1</f>
-        <v>44322</v>
+        <v>44339</v>
       </c>
       <c r="AS7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44323</v>
+        <v>44340</v>
       </c>
       <c r="AT7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44324</v>
+        <v>44341</v>
       </c>
       <c r="AU7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44325</v>
+        <v>44342</v>
       </c>
       <c r="AV7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44326</v>
+        <v>44343</v>
       </c>
       <c r="AW7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44327</v>
+        <v>44344</v>
       </c>
       <c r="AX7" s="117">
         <f t="shared" ref="AX7:BK7" ca="1" si="1">AW7+1</f>
-        <v>44328</v>
+        <v>44345</v>
       </c>
       <c r="AY7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44329</v>
+        <v>44346</v>
       </c>
       <c r="AZ7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44330</v>
+        <v>44347</v>
       </c>
       <c r="BA7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44331</v>
+        <v>44348</v>
       </c>
       <c r="BB7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44332</v>
+        <v>44349</v>
       </c>
       <c r="BC7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44333</v>
+        <v>44350</v>
       </c>
       <c r="BD7" s="118">
         <f t="shared" ca="1" si="1"/>
-        <v>44334</v>
+        <v>44351</v>
       </c>
       <c r="BE7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44335</v>
+        <v>44352</v>
       </c>
       <c r="BF7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44336</v>
+        <v>44353</v>
       </c>
       <c r="BG7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44337</v>
+        <v>44354</v>
       </c>
       <c r="BH7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44338</v>
+        <v>44355</v>
       </c>
       <c r="BI7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44339</v>
+        <v>44356</v>
       </c>
       <c r="BJ7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44340</v>
+        <v>44357</v>
       </c>
       <c r="BK7" s="118">
         <f t="shared" ca="1" si="1"/>
-        <v>44341</v>
+        <v>44358</v>
       </c>
       <c r="BL7" s="99"/>
     </row>
-    <row r="8" spans="1:67" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:67" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10"/>
       <c r="B8" s="95"/>
       <c r="C8" s="95"/>
@@ -18652,7 +18728,7 @@
       <c r="BK8" s="123"/>
       <c r="BL8" s="99"/>
     </row>
-    <row r="9" spans="1:67" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:67" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10"/>
       <c r="B9" s="140" t="s">
         <v>23</v>
@@ -18669,234 +18745,236 @@
       <c r="F9" s="141" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="105"/>
+      <c r="G9" s="159" t="s">
+        <v>56</v>
+      </c>
       <c r="H9" s="124" t="str">
         <f t="shared" ref="H9:BK9" ca="1" si="2">LEFT(TEXT(H7,"ddd"),1)</f>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="I9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="J9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="K9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="L9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>W</v>
       </c>
       <c r="M9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="N9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="O9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>S</v>
       </c>
       <c r="P9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="Q9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="R9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="S9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>W</v>
       </c>
       <c r="T9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="U9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="V9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>S</v>
       </c>
       <c r="W9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="X9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="Y9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="Z9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>W</v>
       </c>
       <c r="AA9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AB9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="AC9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>S</v>
       </c>
       <c r="AD9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="AE9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="AF9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AG9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>W</v>
       </c>
       <c r="AH9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AI9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="AJ9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>S</v>
       </c>
       <c r="AK9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="AL9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="AM9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AN9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>W</v>
       </c>
       <c r="AO9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AP9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="AQ9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>S</v>
       </c>
       <c r="AR9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="AS9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="AT9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AU9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>W</v>
       </c>
       <c r="AV9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AW9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="AX9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>S</v>
       </c>
       <c r="AY9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="AZ9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="BA9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="BB9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>W</v>
       </c>
       <c r="BC9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="BD9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="BE9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>S</v>
       </c>
       <c r="BF9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="BG9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="BH9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="BI9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>W</v>
       </c>
       <c r="BJ9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="BK9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="BL9" s="99"/>
     </row>
-    <row r="10" spans="1:67" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:67" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="18"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
@@ -18961,7 +19039,7 @@
       <c r="BK10" s="42"/>
       <c r="BL10" s="99"/>
     </row>
-    <row r="11" spans="1:67" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:67" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10"/>
       <c r="B11" s="134" t="s">
         <v>44</v>
@@ -19198,7 +19276,7 @@
       <c r="BL11" s="21"/>
       <c r="BO11" s="47"/>
     </row>
-    <row r="12" spans="1:67" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:67" s="1" customFormat="1" ht="76" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10"/>
       <c r="B12" s="71" t="s">
         <v>40</v>
@@ -19207,95 +19285,97 @@
         <v>9</v>
       </c>
       <c r="D12" s="68">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E12" s="69">
         <f ca="1">TODAY()-8</f>
-        <v>44278</v>
+        <v>44305</v>
       </c>
       <c r="F12" s="70">
         <v>18</v>
       </c>
-      <c r="G12" s="103"/>
+      <c r="G12" s="103" t="s">
+        <v>58</v>
+      </c>
       <c r="H12" s="29">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="I12" s="29">
+      <c r="I12" s="29" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="J12" s="29">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="J12" s="29">
+      <c r="K12" s="29">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="K12" s="29">
+      <c r="L12" s="29">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="L12" s="29">
+      <c r="M12" s="29">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="M12" s="29">
+      <c r="N12" s="29">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="N12" s="29">
+      <c r="O12" s="29">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="O12" s="29">
+      <c r="P12" s="29">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="P12" s="29">
+      <c r="Q12" s="107">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q12" s="107">
-        <f t="shared" ca="1" si="3"/>
+      <c r="R12" s="29">
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-      <c r="R12" s="29" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="S12" s="29" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="T12" s="29" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="U12" s="29" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="V12" s="29" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="W12" s="29" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="X12" s="29" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="Y12" s="29" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="Z12" s="29" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="AA12" s="29" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
+      <c r="S12" s="29">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="T12" s="29">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="U12" s="29">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V12" s="29">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="W12" s="29">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X12" s="29">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y12" s="29">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Z12" s="29">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AA12" s="29">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="AB12" s="29" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -19443,7 +19523,7 @@
       </c>
       <c r="BL12" s="21"/>
     </row>
-    <row r="13" spans="1:67" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:67" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10"/>
       <c r="B13" s="71" t="s">
         <v>41</v>
@@ -19452,95 +19532,97 @@
         <v>9</v>
       </c>
       <c r="D13" s="68">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E13" s="69">
         <f ca="1">TODAY()-8</f>
-        <v>44278</v>
+        <v>44305</v>
       </c>
       <c r="F13" s="70">
         <v>18</v>
       </c>
-      <c r="G13" s="103"/>
+      <c r="G13" s="103" t="s">
+        <v>59</v>
+      </c>
       <c r="H13" s="29">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="I13" s="29">
+      <c r="I13" s="29" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="J13" s="29">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="J13" s="29">
+      <c r="K13" s="29">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="K13" s="29">
+      <c r="L13" s="29">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="L13" s="29">
+      <c r="M13" s="29">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="M13" s="29">
+      <c r="N13" s="29">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="N13" s="29">
+      <c r="O13" s="29">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="O13" s="29">
+      <c r="P13" s="29">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="P13" s="29">
+      <c r="Q13" s="29">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q13" s="29">
-        <f t="shared" ca="1" si="3"/>
+      <c r="R13" s="29">
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-      <c r="R13" s="29" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="S13" s="29" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="T13" s="29" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="U13" s="29" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="V13" s="29" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="W13" s="29" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="X13" s="29" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="Y13" s="29" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="Z13" s="29" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="AA13" s="29" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
+      <c r="S13" s="29">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="T13" s="29">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="U13" s="29">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V13" s="29">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="W13" s="29">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X13" s="29">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y13" s="29">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Z13" s="29">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AA13" s="29">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="AB13" s="29" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -19688,7 +19770,7 @@
       </c>
       <c r="BL13" s="21"/>
     </row>
-    <row r="14" spans="1:67" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:67" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="71" t="s">
         <v>42</v>
@@ -19697,95 +19779,97 @@
         <v>9</v>
       </c>
       <c r="D14" s="68">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E14" s="69">
         <f ca="1">E13</f>
-        <v>44278</v>
+        <v>44305</v>
       </c>
       <c r="F14" s="70">
         <v>18</v>
       </c>
-      <c r="G14" s="103"/>
+      <c r="G14" s="160">
+        <v>44305</v>
+      </c>
       <c r="H14" s="29">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="I14" s="29">
+      <c r="I14" s="29" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="J14" s="29">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="J14" s="29">
+      <c r="K14" s="29">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="K14" s="29">
+      <c r="L14" s="29">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="L14" s="29">
+      <c r="M14" s="29">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="M14" s="29">
+      <c r="N14" s="29">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="N14" s="29">
+      <c r="O14" s="29">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="O14" s="29">
+      <c r="P14" s="29">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="P14" s="29">
+      <c r="Q14" s="29">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q14" s="29">
-        <f t="shared" ca="1" si="3"/>
+      <c r="R14" s="29">
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-      <c r="R14" s="29" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="S14" s="29" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="T14" s="29" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="U14" s="29" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="V14" s="29" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="W14" s="29" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="X14" s="29" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="Y14" s="29" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="Z14" s="29" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="AA14" s="29" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
+      <c r="S14" s="29">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="T14" s="29">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="U14" s="29">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V14" s="29">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="W14" s="29">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X14" s="29">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y14" s="29">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Z14" s="29">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AA14" s="29">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="AB14" s="29" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -19933,7 +20017,7 @@
       </c>
       <c r="BL14" s="21"/>
     </row>
-    <row r="15" spans="1:67" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:67" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="71" t="s">
         <v>43</v>
@@ -19946,12 +20030,14 @@
       </c>
       <c r="E15" s="69">
         <f ca="1">E13</f>
-        <v>44278</v>
+        <v>44305</v>
       </c>
       <c r="F15" s="70">
         <v>1</v>
       </c>
-      <c r="G15" s="103"/>
+      <c r="G15" s="160">
+        <v>44305</v>
+      </c>
       <c r="H15" s="29" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
@@ -19960,9 +20046,9 @@
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="J15" s="29" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
+      <c r="J15" s="29">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
       </c>
       <c r="K15" s="29" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -20178,7 +20264,7 @@
       </c>
       <c r="BL15" s="21"/>
     </row>
-    <row r="16" spans="1:67" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:67" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10"/>
       <c r="B16" s="134" t="s">
         <v>45</v>
@@ -20414,7 +20500,7 @@
       </c>
       <c r="BL16" s="21"/>
     </row>
-    <row r="17" spans="1:64" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:64" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10"/>
       <c r="B17" s="71" t="s">
         <v>46</v>
@@ -20422,15 +20508,19 @@
       <c r="C17" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="68"/>
+      <c r="D17" s="68">
+        <v>1</v>
+      </c>
       <c r="E17" s="69">
-        <f ca="1">E12+9</f>
-        <v>44287</v>
+        <f ca="1">E12</f>
+        <v>44305</v>
       </c>
       <c r="F17" s="70">
         <v>1</v>
       </c>
-      <c r="G17" s="103"/>
+      <c r="G17" s="103" t="s">
+        <v>57</v>
+      </c>
       <c r="H17" s="29" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
@@ -20657,7 +20747,7 @@
       </c>
       <c r="BL17" s="21"/>
     </row>
-    <row r="18" spans="1:64" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:64" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9"/>
       <c r="B18" s="71" t="s">
         <v>47</v>
@@ -20665,15 +20755,19 @@
       <c r="C18" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="68"/>
+      <c r="D18" s="68">
+        <v>1</v>
+      </c>
       <c r="E18" s="69">
         <f ca="1">E17</f>
-        <v>44287</v>
+        <v>44305</v>
       </c>
       <c r="F18" s="70">
         <v>1</v>
       </c>
-      <c r="G18" s="103"/>
+      <c r="G18" s="160">
+        <v>44306</v>
+      </c>
       <c r="H18" s="29" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
@@ -20900,7 +20994,7 @@
       </c>
       <c r="BL18" s="21"/>
     </row>
-    <row r="19" spans="1:64" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:64" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="71" t="s">
         <v>48</v>
@@ -20908,15 +21002,19 @@
       <c r="C19" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="68"/>
+      <c r="D19" s="68">
+        <v>1</v>
+      </c>
       <c r="E19" s="69">
         <f ca="1">E17</f>
-        <v>44287</v>
+        <v>44305</v>
       </c>
       <c r="F19" s="70">
         <v>2</v>
       </c>
-      <c r="G19" s="103"/>
+      <c r="G19" s="160">
+        <v>44307</v>
+      </c>
       <c r="H19" s="29" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
@@ -21143,7 +21241,7 @@
       </c>
       <c r="BL19" s="21"/>
     </row>
-    <row r="20" spans="1:64" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:64" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9"/>
       <c r="B20" s="71" t="s">
         <v>49</v>
@@ -21151,15 +21249,19 @@
       <c r="C20" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="68"/>
+      <c r="D20" s="68">
+        <v>1</v>
+      </c>
       <c r="E20" s="69">
         <f ca="1">E17</f>
-        <v>44287</v>
+        <v>44305</v>
       </c>
       <c r="F20" s="70">
         <v>3</v>
       </c>
-      <c r="G20" s="103"/>
+      <c r="G20" s="160" t="s">
+        <v>60</v>
+      </c>
       <c r="H20" s="29" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
@@ -21386,7 +21488,7 @@
       </c>
       <c r="BL20" s="21"/>
     </row>
-    <row r="21" spans="1:64" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:64" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9"/>
       <c r="B21" s="71" t="s">
         <v>50</v>
@@ -21394,15 +21496,19 @@
       <c r="C21" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="68"/>
+      <c r="D21" s="68">
+        <v>1</v>
+      </c>
       <c r="E21" s="69">
         <f ca="1">E17+1</f>
-        <v>44288</v>
+        <v>44306</v>
       </c>
       <c r="F21" s="70">
-        <v>9</v>
-      </c>
-      <c r="G21" s="103"/>
+        <v>5</v>
+      </c>
+      <c r="G21" s="160">
+        <v>44311</v>
+      </c>
       <c r="H21" s="29" t="str">
         <f t="shared" ref="H21:Q26" ca="1" si="9">IF(AND($C21="Goal",H$7&gt;=$E21,H$7&lt;=$E21+$F21-1),2,IF(AND($C21="Milestone",H$7&gt;=$E21,H$7&lt;=$E21+$F21-1),1,""))</f>
         <v/>
@@ -21629,7 +21735,7 @@
       </c>
       <c r="BL21" s="21"/>
     </row>
-    <row r="22" spans="1:64" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:64" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9"/>
       <c r="B22" s="71" t="s">
         <v>51</v>
@@ -21637,15 +21743,19 @@
       <c r="C22" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="68"/>
+      <c r="D22" s="68">
+        <v>1</v>
+      </c>
       <c r="E22" s="69">
         <f ca="1">E17+1</f>
-        <v>44288</v>
+        <v>44306</v>
       </c>
       <c r="F22" s="70">
-        <v>13</v>
-      </c>
-      <c r="G22" s="103"/>
+        <v>6</v>
+      </c>
+      <c r="G22" s="103" t="s">
+        <v>61</v>
+      </c>
       <c r="H22" s="29" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
@@ -21872,7 +21982,7 @@
       </c>
       <c r="BL22" s="21"/>
     </row>
-    <row r="23" spans="1:64" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:64" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9"/>
       <c r="B23" s="71" t="s">
         <v>52</v>
@@ -21880,15 +21990,19 @@
       <c r="C23" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="68"/>
+      <c r="D23" s="68">
+        <v>1</v>
+      </c>
       <c r="E23" s="69">
         <f ca="1">E17+1</f>
-        <v>44288</v>
+        <v>44306</v>
       </c>
       <c r="F23" s="70">
-        <v>7</v>
-      </c>
-      <c r="G23" s="103"/>
+        <v>5</v>
+      </c>
+      <c r="G23" s="160" t="s">
+        <v>63</v>
+      </c>
       <c r="H23" s="29" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
@@ -22115,7 +22229,7 @@
       </c>
       <c r="BL23" s="21"/>
     </row>
-    <row r="24" spans="1:64" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:64" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
       <c r="B24" s="71" t="s">
         <v>53</v>
@@ -22123,15 +22237,19 @@
       <c r="C24" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="68"/>
+      <c r="D24" s="68">
+        <v>1</v>
+      </c>
       <c r="E24" s="69">
         <f ca="1">E17+2</f>
-        <v>44289</v>
+        <v>44307</v>
       </c>
       <c r="F24" s="70">
-        <v>7</v>
-      </c>
-      <c r="G24" s="103"/>
+        <v>4</v>
+      </c>
+      <c r="G24" s="160" t="s">
+        <v>64</v>
+      </c>
       <c r="H24" s="29" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
@@ -22358,7 +22476,7 @@
       </c>
       <c r="BL24" s="21"/>
     </row>
-    <row r="25" spans="1:64" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:64" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="9"/>
       <c r="B25" s="71" t="s">
         <v>54</v>
@@ -22366,15 +22484,19 @@
       <c r="C25" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="68"/>
+      <c r="D25" s="68">
+        <v>1</v>
+      </c>
       <c r="E25" s="69">
         <f ca="1">E17+5</f>
-        <v>44292</v>
+        <v>44310</v>
       </c>
       <c r="F25" s="70">
-        <v>5</v>
-      </c>
-      <c r="G25" s="103"/>
+        <v>2</v>
+      </c>
+      <c r="G25" s="161" t="s">
+        <v>62</v>
+      </c>
       <c r="H25" s="29" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
@@ -22601,7 +22723,7 @@
       </c>
       <c r="BL25" s="21"/>
     </row>
-    <row r="26" spans="1:64" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:64" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9"/>
       <c r="B26" s="71" t="s">
         <v>55</v>
@@ -22609,15 +22731,19 @@
       <c r="C26" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="68"/>
+      <c r="D26" s="68">
+        <v>1</v>
+      </c>
       <c r="E26" s="69">
         <f ca="1">E17+6</f>
-        <v>44293</v>
+        <v>44311</v>
       </c>
       <c r="F26" s="70">
-        <v>9</v>
-      </c>
-      <c r="G26" s="103"/>
+        <v>1</v>
+      </c>
+      <c r="G26" s="160" t="s">
+        <v>65</v>
+      </c>
       <c r="H26" s="29" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
@@ -22844,7 +22970,7 @@
       </c>
       <c r="BL26" s="21"/>
     </row>
-    <row r="27" spans="1:64" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:64" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="10"/>
       <c r="B27" s="136" t="s">
         <v>20</v>
@@ -22912,7 +23038,7 @@
       <c r="BK27" s="104"/>
       <c r="BL27" s="97"/>
     </row>
-    <row r="28" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F28" s="11"/>
       <c r="G28" s="3"/>
     </row>
@@ -22942,56 +23068,56 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:BK27">
-    <cfRule type="expression" dxfId="16" priority="1">
+    <cfRule type="expression" dxfId="17" priority="1">
       <formula>AND(TODAY()&gt;=H$7,TODAY()&lt;I$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:AL6">
-    <cfRule type="expression" dxfId="15" priority="4">
+    <cfRule type="expression" dxfId="16" priority="4">
       <formula>H$7&lt;=EOMONTH($H$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:BK6">
-    <cfRule type="expression" dxfId="14" priority="3">
+    <cfRule type="expression" dxfId="15" priority="3">
       <formula>AND(I$7&lt;=EOMONTH($H$7,2),I$7&gt;EOMONTH($H$7,0),I$7&gt;EOMONTH($H$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:BK6">
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="14" priority="2">
       <formula>AND(H$7&lt;=EOMONTH($H$7,1),H$7&gt;EOMONTH($H$7,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27:BK27">
-    <cfRule type="expression" dxfId="12" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="13" stopIfTrue="1">
       <formula>AND(#REF!="Low Risk",H$7&gt;=#REF!,H$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
       <formula>AND(#REF!="High Risk",H$7&gt;=#REF!,H$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="15" stopIfTrue="1">
       <formula>AND(#REF!="On Track",H$7&gt;=#REF!,H$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="16" stopIfTrue="1">
       <formula>AND(#REF!="Med Risk",H$7&gt;=#REF!,H$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="17" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,H$7&gt;=#REF!,H$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:BK26">
-    <cfRule type="expression" dxfId="7" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="18" stopIfTrue="1">
       <formula>AND($C10="Low Risk",H$7&gt;=$E10,H$7&lt;=$E10+$F10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="19" stopIfTrue="1">
       <formula>AND($C10="High Risk",H$7&gt;=$E10,H$7&lt;=$E10+$F10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="20" stopIfTrue="1">
       <formula>AND($C10="On Track",H$7&gt;=$E10,H$7&lt;=$E10+$F10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="21" stopIfTrue="1">
       <formula>AND($C10="Med Risk",H$7&gt;=$E10,H$7&lt;=$E10+$F10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="22" stopIfTrue="1">
       <formula>AND(LEN($C10)=0,H$7&gt;=$E10,H$7&lt;=$E10+$F10-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23033,13 +23159,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>50800</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>95250</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>62</xdr:col>
-                    <xdr:colOff>342900</xdr:colOff>
+                    <xdr:colOff>158750</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>361950</xdr:rowOff>
                   </to>
@@ -23393,6 +23519,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -23409,15 +23544,6 @@
     <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -23442,6 +23568,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39060724-9CA2-4290-8A0C-B53624A594E7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4BA2A8-DB97-40F9-8DB6-154C09C7467C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -23451,12 +23585,4 @@
     <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39060724-9CA2-4290-8A0C-B53624A594E7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Daniel Akoto - Gantt Chart Individual Project (version 1).xlsb.xlsx
+++ b/Daniel Akoto - Gantt Chart Individual Project (version 1).xlsb.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB1F571-2DDB-4820-A6EB-7D6C29B3F70D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79403FCF-0E82-40E6-8125-23AE4EA67B97}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2860" yWindow="2860" windowWidth="24000" windowHeight="13250" tabRatio="415" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -245,31 +245,31 @@
     <t>Date Completed &amp; Reason</t>
   </si>
   <si>
-    <t xml:space="preserve">4/20/2021, The dates of all the Implementation tasks were moved forward  days. </t>
-  </si>
-  <si>
-    <t>4/21/2021, The Design was altered later in the project during Design Review</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4/20/2021, New tools were added into the list. </t>
-  </si>
-  <si>
-    <t>4/23/2021, Getting a color scheme was difficult because I changed the schem multiple times</t>
-  </si>
-  <si>
-    <t>4/26/2021, I completed most of the debugging in one day.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4/26/2021, </t>
-  </si>
-  <si>
-    <t>4/23/2021, The songs did not take as long as I thougt it woul take.</t>
-  </si>
-  <si>
     <t>4/22/2021, The embeeding process only too a few minutes, spotify makes it easy.</t>
   </si>
   <si>
-    <t>4/26/2021, I began hosting the site a lot earlier than predicted. ( 4/21/2021)</t>
+    <t>4/1/2021, The Design was altered later in the project during Design Review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4/1/2021, New tools were added into the list. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4/4/2021, The dates of all the Implementation tasks were moved forward  days. </t>
+  </si>
+  <si>
+    <t>4/8/2021, Getting a color scheme was difficult because I changed the schem multiple times</t>
+  </si>
+  <si>
+    <t>4/22/2021, I completed most of the debugging in while working on multiple parts.</t>
+  </si>
+  <si>
+    <t>4/10/2021, The songs did not take as long as I thougt it woul take.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4/14/2021, </t>
+  </si>
+  <si>
+    <t>4/26/2021, I began hosting the site a lot earlier than predicted. ( 4/1/2021)</t>
   </si>
 </sst>
 </file>
@@ -1250,6 +1250,15 @@
     <xf numFmtId="0" fontId="21" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="13" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1299,15 +1308,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2742,7 +2742,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>62</xdr:col>
-          <xdr:colOff>161416</xdr:colOff>
+          <xdr:colOff>158750</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>3136</xdr:rowOff>
         </xdr:to>
@@ -3148,11 +3148,11 @@
     <row r="2" spans="1:13" ht="50.15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="7"/>
       <c r="B2" s="131"/>
-      <c r="C2" s="142" t="s">
+      <c r="C2" s="145" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
       <c r="F2" s="131"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -3180,11 +3180,11 @@
     <row r="4" spans="1:13" s="8" customFormat="1" ht="67" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="7"/>
       <c r="B4" s="126"/>
-      <c r="C4" s="143" t="s">
+      <c r="C4" s="146" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="143"/>
-      <c r="E4" s="143"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
       <c r="F4" s="126"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -3197,11 +3197,11 @@
     <row r="5" spans="1:13" s="8" customFormat="1" ht="67" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="7"/>
       <c r="B5" s="126"/>
-      <c r="C5" s="143" t="s">
+      <c r="C5" s="146" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
+      <c r="D5" s="146"/>
+      <c r="E5" s="146"/>
       <c r="F5" s="126"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -3323,27 +3323,27 @@
     <row r="1" spans="1:68" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:68" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10"/>
-      <c r="B2" s="146" t="s">
+      <c r="B2" s="149" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="147"/>
-      <c r="K2" s="147"/>
-      <c r="L2" s="147"/>
-      <c r="M2" s="147"/>
-      <c r="N2" s="147"/>
-      <c r="O2" s="148"/>
-      <c r="P2" s="148"/>
-      <c r="Q2" s="148"/>
-      <c r="R2" s="148"/>
-      <c r="S2" s="148"/>
-      <c r="T2" s="148"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
+      <c r="K2" s="150"/>
+      <c r="L2" s="150"/>
+      <c r="M2" s="150"/>
+      <c r="N2" s="150"/>
+      <c r="O2" s="151"/>
+      <c r="P2" s="151"/>
+      <c r="Q2" s="151"/>
+      <c r="R2" s="151"/>
+      <c r="S2" s="151"/>
+      <c r="T2" s="151"/>
       <c r="U2" s="76"/>
       <c r="V2" s="76"/>
       <c r="W2" s="76"/>
@@ -3470,40 +3470,40 @@
         <v>18</v>
       </c>
       <c r="H4" s="84"/>
-      <c r="I4" s="149" t="s">
+      <c r="I4" s="152" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="149"/>
-      <c r="K4" s="149"/>
-      <c r="L4" s="149"/>
+      <c r="J4" s="152"/>
+      <c r="K4" s="152"/>
+      <c r="L4" s="152"/>
       <c r="M4" s="99"/>
-      <c r="N4" s="150" t="s">
+      <c r="N4" s="153" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="150"/>
-      <c r="P4" s="150"/>
-      <c r="Q4" s="150"/>
+      <c r="O4" s="153"/>
+      <c r="P4" s="153"/>
+      <c r="Q4" s="153"/>
       <c r="R4" s="99"/>
-      <c r="S4" s="151" t="s">
+      <c r="S4" s="154" t="s">
         <v>28</v>
       </c>
-      <c r="T4" s="151"/>
-      <c r="U4" s="151"/>
-      <c r="V4" s="151"/>
+      <c r="T4" s="154"/>
+      <c r="U4" s="154"/>
+      <c r="V4" s="154"/>
       <c r="W4" s="99"/>
-      <c r="X4" s="144" t="s">
+      <c r="X4" s="147" t="s">
         <v>29</v>
       </c>
-      <c r="Y4" s="144"/>
-      <c r="Z4" s="144"/>
-      <c r="AA4" s="144"/>
+      <c r="Y4" s="147"/>
+      <c r="Z4" s="147"/>
+      <c r="AA4" s="147"/>
       <c r="AB4" s="99"/>
-      <c r="AC4" s="145" t="s">
+      <c r="AC4" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="AD4" s="145"/>
-      <c r="AE4" s="145"/>
-      <c r="AF4" s="145"/>
+      <c r="AD4" s="148"/>
+      <c r="AE4" s="148"/>
+      <c r="AF4" s="148"/>
       <c r="AG4" s="99"/>
       <c r="AH4" s="99"/>
       <c r="AI4" s="99"/>
@@ -10685,27 +10685,27 @@
     <row r="1" spans="1:68" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:68" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10"/>
-      <c r="B2" s="152" t="s">
+      <c r="B2" s="155" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="153"/>
-      <c r="M2" s="153"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="154"/>
-      <c r="P2" s="155"/>
-      <c r="Q2" s="155"/>
-      <c r="R2" s="155"/>
-      <c r="S2" s="155"/>
-      <c r="T2" s="155"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="156"/>
+      <c r="M2" s="156"/>
+      <c r="N2" s="156"/>
+      <c r="O2" s="157"/>
+      <c r="P2" s="158"/>
+      <c r="Q2" s="158"/>
+      <c r="R2" s="158"/>
+      <c r="S2" s="158"/>
+      <c r="T2" s="158"/>
       <c r="U2" s="23"/>
       <c r="V2" s="23"/>
       <c r="W2" s="23"/>
@@ -10832,40 +10832,40 @@
         <v>18</v>
       </c>
       <c r="H4" s="32"/>
-      <c r="I4" s="149" t="s">
+      <c r="I4" s="152" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="149"/>
-      <c r="K4" s="149"/>
-      <c r="L4" s="149"/>
+      <c r="J4" s="152"/>
+      <c r="K4" s="152"/>
+      <c r="L4" s="152"/>
       <c r="M4" s="35"/>
-      <c r="N4" s="150" t="s">
+      <c r="N4" s="153" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="150"/>
-      <c r="P4" s="150"/>
-      <c r="Q4" s="150"/>
+      <c r="O4" s="153"/>
+      <c r="P4" s="153"/>
+      <c r="Q4" s="153"/>
       <c r="R4" s="35"/>
-      <c r="S4" s="151" t="s">
+      <c r="S4" s="154" t="s">
         <v>28</v>
       </c>
-      <c r="T4" s="151"/>
-      <c r="U4" s="151"/>
-      <c r="V4" s="151"/>
+      <c r="T4" s="154"/>
+      <c r="U4" s="154"/>
+      <c r="V4" s="154"/>
       <c r="W4" s="35"/>
-      <c r="X4" s="144" t="s">
+      <c r="X4" s="147" t="s">
         <v>29</v>
       </c>
-      <c r="Y4" s="144"/>
-      <c r="Z4" s="144"/>
-      <c r="AA4" s="144"/>
+      <c r="Y4" s="147"/>
+      <c r="Z4" s="147"/>
+      <c r="AA4" s="147"/>
       <c r="AB4" s="35"/>
-      <c r="AC4" s="145" t="s">
+      <c r="AC4" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="AD4" s="145"/>
-      <c r="AE4" s="145"/>
-      <c r="AF4" s="145"/>
+      <c r="AD4" s="148"/>
+      <c r="AE4" s="148"/>
+      <c r="AF4" s="148"/>
       <c r="AG4" s="35"/>
       <c r="AH4" s="35"/>
       <c r="AI4" s="35"/>
@@ -18027,8 +18027,8 @@
   </sheetPr>
   <dimension ref="A1:BO28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="D7" zoomScale="81" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B7" zoomScale="81" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -18049,26 +18049,26 @@
     <row r="1" spans="1:67" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:67" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10"/>
-      <c r="B2" s="156" t="s">
+      <c r="B2" s="159" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
-      <c r="K2" s="157"/>
-      <c r="L2" s="157"/>
-      <c r="M2" s="157"/>
-      <c r="N2" s="158"/>
-      <c r="O2" s="158"/>
-      <c r="P2" s="158"/>
-      <c r="Q2" s="158"/>
-      <c r="R2" s="158"/>
-      <c r="S2" s="158"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="159"/>
+      <c r="G2" s="159"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="160"/>
+      <c r="N2" s="161"/>
+      <c r="O2" s="161"/>
+      <c r="P2" s="161"/>
+      <c r="Q2" s="161"/>
+      <c r="R2" s="161"/>
+      <c r="S2" s="161"/>
       <c r="T2" s="115"/>
       <c r="U2" s="115"/>
       <c r="V2" s="115"/>
@@ -18193,40 +18193,40 @@
         <v>18</v>
       </c>
       <c r="G4" s="84"/>
-      <c r="H4" s="149" t="s">
+      <c r="H4" s="152" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="149"/>
-      <c r="J4" s="149"/>
-      <c r="K4" s="149"/>
+      <c r="I4" s="152"/>
+      <c r="J4" s="152"/>
+      <c r="K4" s="152"/>
       <c r="L4" s="99"/>
-      <c r="M4" s="150" t="s">
+      <c r="M4" s="153" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="150"/>
-      <c r="O4" s="150"/>
-      <c r="P4" s="150"/>
+      <c r="N4" s="153"/>
+      <c r="O4" s="153"/>
+      <c r="P4" s="153"/>
       <c r="Q4" s="99"/>
-      <c r="R4" s="151" t="s">
+      <c r="R4" s="154" t="s">
         <v>28</v>
       </c>
-      <c r="S4" s="151"/>
-      <c r="T4" s="151"/>
-      <c r="U4" s="151"/>
+      <c r="S4" s="154"/>
+      <c r="T4" s="154"/>
+      <c r="U4" s="154"/>
       <c r="V4" s="99"/>
-      <c r="W4" s="144" t="s">
+      <c r="W4" s="147" t="s">
         <v>29</v>
       </c>
-      <c r="X4" s="144"/>
-      <c r="Y4" s="144"/>
-      <c r="Z4" s="144"/>
+      <c r="X4" s="147"/>
+      <c r="Y4" s="147"/>
+      <c r="Z4" s="147"/>
       <c r="AA4" s="99"/>
-      <c r="AB4" s="145" t="s">
+      <c r="AB4" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="AC4" s="145"/>
-      <c r="AD4" s="145"/>
-      <c r="AE4" s="145"/>
+      <c r="AC4" s="148"/>
+      <c r="AD4" s="148"/>
+      <c r="AE4" s="148"/>
       <c r="AF4" s="99"/>
       <c r="AG4" s="99"/>
       <c r="AH4" s="99"/>
@@ -18344,7 +18344,7 @@
       <c r="G6" s="84"/>
       <c r="H6" s="109" t="str">
         <f ca="1">TEXT(H7,"mmmm")</f>
-        <v>April</v>
+        <v>March</v>
       </c>
       <c r="I6" s="109"/>
       <c r="J6" s="109"/>
@@ -18364,7 +18364,7 @@
       <c r="U6" s="109"/>
       <c r="V6" s="109" t="str">
         <f ca="1">IF(OR(TEXT(V7,"mmmm")=O6,TEXT(V7,"mmmm")=H6),"",TEXT(V7,"mmmm"))</f>
-        <v>May</v>
+        <v>April</v>
       </c>
       <c r="W6" s="109"/>
       <c r="X6" s="109"/>
@@ -18404,7 +18404,7 @@
       <c r="AW6" s="110"/>
       <c r="AX6" s="110" t="str">
         <f ca="1">IF(OR(TEXT(AX7,"mmmm")=AQ6,TEXT(AX7,"mmmm")=AJ6,TEXT(AX7,"mmmm")=AC6,TEXT(AX7,"mmmm")=V6),"",TEXT(AX7,"mmmm"))</f>
-        <v/>
+        <v>May</v>
       </c>
       <c r="AY6" s="110"/>
       <c r="AZ6" s="110"/>
@@ -18414,7 +18414,7 @@
       <c r="BD6" s="108"/>
       <c r="BE6" s="108" t="str">
         <f ca="1">IF(OR(TEXT(BE7,"mmmm")=AX6,TEXT(BE7,"mmmm")=AQ6,TEXT(BE7,"mmmm")=AJ6,TEXT(BE7,"mmmm")=AC6),"",TEXT(BE7,"mmmm"))</f>
-        <v>June</v>
+        <v/>
       </c>
       <c r="BF6" s="108"/>
       <c r="BG6" s="108"/>
@@ -18437,228 +18437,228 @@
       <c r="F7" s="88"/>
       <c r="G7" s="94"/>
       <c r="H7" s="116">
-        <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
-        <v>44313</v>
+        <f ca="1">TODAY()-35</f>
+        <v>44278</v>
       </c>
       <c r="I7" s="117">
-        <f ca="1">H7-9</f>
-        <v>44304</v>
+        <f ca="1">H7+1</f>
+        <v>44279</v>
       </c>
       <c r="J7" s="117">
         <f t="shared" ref="J7:AW7" ca="1" si="0">I7+1</f>
-        <v>44305</v>
+        <v>44280</v>
       </c>
       <c r="K7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44306</v>
+        <v>44281</v>
       </c>
       <c r="L7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44307</v>
+        <v>44282</v>
       </c>
       <c r="M7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44308</v>
+        <v>44283</v>
       </c>
       <c r="N7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44309</v>
+        <v>44284</v>
       </c>
       <c r="O7" s="117">
         <f ca="1">N7+1</f>
-        <v>44310</v>
+        <v>44285</v>
       </c>
       <c r="P7" s="117">
         <f ca="1">O7+1</f>
-        <v>44311</v>
+        <v>44286</v>
       </c>
       <c r="Q7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44312</v>
+        <v>44287</v>
       </c>
       <c r="R7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44313</v>
+        <v>44288</v>
       </c>
       <c r="S7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44314</v>
+        <v>44289</v>
       </c>
       <c r="T7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44315</v>
+        <v>44290</v>
       </c>
       <c r="U7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44316</v>
+        <v>44291</v>
       </c>
       <c r="V7" s="117">
         <f ca="1">U7+1</f>
-        <v>44317</v>
+        <v>44292</v>
       </c>
       <c r="W7" s="117">
         <f ca="1">V7+1</f>
-        <v>44318</v>
+        <v>44293</v>
       </c>
       <c r="X7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44319</v>
+        <v>44294</v>
       </c>
       <c r="Y7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44320</v>
+        <v>44295</v>
       </c>
       <c r="Z7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44321</v>
+        <v>44296</v>
       </c>
       <c r="AA7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44322</v>
+        <v>44297</v>
       </c>
       <c r="AB7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44323</v>
+        <v>44298</v>
       </c>
       <c r="AC7" s="117">
         <f ca="1">AB7+1</f>
-        <v>44324</v>
+        <v>44299</v>
       </c>
       <c r="AD7" s="117">
         <f ca="1">AC7+1</f>
-        <v>44325</v>
+        <v>44300</v>
       </c>
       <c r="AE7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44326</v>
+        <v>44301</v>
       </c>
       <c r="AF7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44327</v>
+        <v>44302</v>
       </c>
       <c r="AG7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44328</v>
+        <v>44303</v>
       </c>
       <c r="AH7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44329</v>
+        <v>44304</v>
       </c>
       <c r="AI7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44330</v>
+        <v>44305</v>
       </c>
       <c r="AJ7" s="117">
         <f ca="1">AI7+1</f>
-        <v>44331</v>
+        <v>44306</v>
       </c>
       <c r="AK7" s="117">
         <f ca="1">AJ7+1</f>
-        <v>44332</v>
+        <v>44307</v>
       </c>
       <c r="AL7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44333</v>
+        <v>44308</v>
       </c>
       <c r="AM7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44334</v>
+        <v>44309</v>
       </c>
       <c r="AN7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44335</v>
+        <v>44310</v>
       </c>
       <c r="AO7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44336</v>
+        <v>44311</v>
       </c>
       <c r="AP7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44337</v>
+        <v>44312</v>
       </c>
       <c r="AQ7" s="117">
         <f ca="1">AP7+1</f>
-        <v>44338</v>
+        <v>44313</v>
       </c>
       <c r="AR7" s="117">
         <f ca="1">AQ7+1</f>
-        <v>44339</v>
+        <v>44314</v>
       </c>
       <c r="AS7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44340</v>
+        <v>44315</v>
       </c>
       <c r="AT7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44341</v>
+        <v>44316</v>
       </c>
       <c r="AU7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44342</v>
+        <v>44317</v>
       </c>
       <c r="AV7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44343</v>
+        <v>44318</v>
       </c>
       <c r="AW7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44344</v>
+        <v>44319</v>
       </c>
       <c r="AX7" s="117">
         <f t="shared" ref="AX7:BK7" ca="1" si="1">AW7+1</f>
-        <v>44345</v>
+        <v>44320</v>
       </c>
       <c r="AY7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44346</v>
+        <v>44321</v>
       </c>
       <c r="AZ7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44347</v>
+        <v>44322</v>
       </c>
       <c r="BA7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44348</v>
+        <v>44323</v>
       </c>
       <c r="BB7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44349</v>
+        <v>44324</v>
       </c>
       <c r="BC7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44350</v>
+        <v>44325</v>
       </c>
       <c r="BD7" s="118">
         <f t="shared" ca="1" si="1"/>
-        <v>44351</v>
+        <v>44326</v>
       </c>
       <c r="BE7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44352</v>
+        <v>44327</v>
       </c>
       <c r="BF7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44353</v>
+        <v>44328</v>
       </c>
       <c r="BG7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44354</v>
+        <v>44329</v>
       </c>
       <c r="BH7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44355</v>
+        <v>44330</v>
       </c>
       <c r="BI7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44356</v>
+        <v>44331</v>
       </c>
       <c r="BJ7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44357</v>
+        <v>44332</v>
       </c>
       <c r="BK7" s="118">
         <f t="shared" ca="1" si="1"/>
-        <v>44358</v>
+        <v>44333</v>
       </c>
       <c r="BL7" s="99"/>
     </row>
@@ -18745,7 +18745,7 @@
       <c r="F9" s="141" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="159" t="s">
+      <c r="G9" s="142" t="s">
         <v>56</v>
       </c>
       <c r="H9" s="124" t="str">
@@ -18754,223 +18754,223 @@
       </c>
       <c r="I9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>W</v>
       </c>
       <c r="J9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="K9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="L9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>S</v>
       </c>
       <c r="M9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="N9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="O9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="P9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>W</v>
       </c>
       <c r="Q9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="R9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="S9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>S</v>
       </c>
       <c r="T9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="U9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="V9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="W9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>W</v>
       </c>
       <c r="X9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="Y9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="Z9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>S</v>
       </c>
       <c r="AA9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="AB9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="AC9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AD9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>W</v>
       </c>
       <c r="AE9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AF9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="AG9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>S</v>
       </c>
       <c r="AH9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="AI9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="AJ9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AK9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>W</v>
       </c>
       <c r="AL9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AM9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="AN9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>S</v>
       </c>
       <c r="AO9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="AP9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="AQ9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AR9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>W</v>
       </c>
       <c r="AS9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AT9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="AU9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>S</v>
       </c>
       <c r="AV9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="AW9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="AX9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AY9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>W</v>
       </c>
       <c r="AZ9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="BA9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="BB9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>S</v>
       </c>
       <c r="BC9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="BD9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="BE9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="BF9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>S</v>
+        <v>W</v>
       </c>
       <c r="BG9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="BH9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="BI9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>S</v>
       </c>
       <c r="BJ9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="BK9" s="124" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="BL9" s="99"/>
     </row>
@@ -19288,8 +19288,8 @@
         <v>1</v>
       </c>
       <c r="E12" s="69">
-        <f ca="1">TODAY()-8</f>
-        <v>44305</v>
+        <f ca="1">TODAY()-35</f>
+        <v>44278</v>
       </c>
       <c r="F12" s="70">
         <v>18</v>
@@ -19301,9 +19301,9 @@
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="I12" s="29" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
+      <c r="I12" s="29">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
       </c>
       <c r="J12" s="29">
         <f t="shared" ca="1" si="3"/>
@@ -19369,13 +19369,13 @@
         <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-      <c r="Z12" s="29">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AA12" s="29">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+      <c r="Z12" s="29" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="AA12" s="29" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
       </c>
       <c r="AB12" s="29" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -19535,8 +19535,8 @@
         <v>1</v>
       </c>
       <c r="E13" s="69">
-        <f ca="1">TODAY()-8</f>
-        <v>44305</v>
+        <f ca="1">TODAY()-35</f>
+        <v>44278</v>
       </c>
       <c r="F13" s="70">
         <v>18</v>
@@ -19548,9 +19548,9 @@
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="I13" s="29" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
+      <c r="I13" s="29">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
       </c>
       <c r="J13" s="29">
         <f t="shared" ca="1" si="3"/>
@@ -19616,13 +19616,13 @@
         <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-      <c r="Z13" s="29">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AA13" s="29">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+      <c r="Z13" s="29" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="AA13" s="29" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
       </c>
       <c r="AB13" s="29" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -19783,21 +19783,21 @@
       </c>
       <c r="E14" s="69">
         <f ca="1">E13</f>
-        <v>44305</v>
+        <v>44278</v>
       </c>
       <c r="F14" s="70">
         <v>18</v>
       </c>
-      <c r="G14" s="160">
-        <v>44305</v>
+      <c r="G14" s="143">
+        <v>44287</v>
       </c>
       <c r="H14" s="29">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="I14" s="29" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
+      <c r="I14" s="29">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
       </c>
       <c r="J14" s="29">
         <f t="shared" ca="1" si="3"/>
@@ -19863,13 +19863,13 @@
         <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-      <c r="Z14" s="29">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AA14" s="29">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+      <c r="Z14" s="29" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="AA14" s="29" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
       </c>
       <c r="AB14" s="29" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -20030,25 +20030,25 @@
       </c>
       <c r="E15" s="69">
         <f ca="1">E13</f>
-        <v>44305</v>
+        <v>44278</v>
       </c>
       <c r="F15" s="70">
         <v>1</v>
       </c>
-      <c r="G15" s="160">
-        <v>44305</v>
-      </c>
-      <c r="H15" s="29" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
+      <c r="G15" s="143">
+        <v>44287</v>
+      </c>
+      <c r="H15" s="29">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
       </c>
       <c r="I15" s="29" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="J15" s="29">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+      <c r="J15" s="29" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
       </c>
       <c r="K15" s="29" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -20512,14 +20512,14 @@
         <v>1</v>
       </c>
       <c r="E17" s="69">
-        <f ca="1">E12</f>
-        <v>44305</v>
+        <f ca="1">E12+11</f>
+        <v>44289</v>
       </c>
       <c r="F17" s="70">
         <v>1</v>
       </c>
       <c r="G17" s="103" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H17" s="29" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -20760,13 +20760,13 @@
       </c>
       <c r="E18" s="69">
         <f ca="1">E17</f>
-        <v>44305</v>
+        <v>44289</v>
       </c>
       <c r="F18" s="70">
         <v>1</v>
       </c>
-      <c r="G18" s="160">
-        <v>44306</v>
+      <c r="G18" s="143">
+        <v>44289</v>
       </c>
       <c r="H18" s="29" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -21007,13 +21007,13 @@
       </c>
       <c r="E19" s="69">
         <f ca="1">E17</f>
-        <v>44305</v>
+        <v>44289</v>
       </c>
       <c r="F19" s="70">
         <v>2</v>
       </c>
-      <c r="G19" s="160">
-        <v>44307</v>
+      <c r="G19" s="143">
+        <v>44291</v>
       </c>
       <c r="H19" s="29" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -21254,13 +21254,13 @@
       </c>
       <c r="E20" s="69">
         <f ca="1">E17</f>
-        <v>44305</v>
+        <v>44289</v>
       </c>
       <c r="F20" s="70">
         <v>3</v>
       </c>
-      <c r="G20" s="160" t="s">
-        <v>60</v>
+      <c r="G20" s="143" t="s">
+        <v>61</v>
       </c>
       <c r="H20" s="29" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -21501,13 +21501,13 @@
       </c>
       <c r="E21" s="69">
         <f ca="1">E17+1</f>
-        <v>44306</v>
+        <v>44290</v>
       </c>
       <c r="F21" s="70">
-        <v>5</v>
-      </c>
-      <c r="G21" s="160">
-        <v>44311</v>
+        <v>9</v>
+      </c>
+      <c r="G21" s="143">
+        <v>44301</v>
       </c>
       <c r="H21" s="29" t="str">
         <f t="shared" ref="H21:Q26" ca="1" si="9">IF(AND($C21="Goal",H$7&gt;=$E21,H$7&lt;=$E21+$F21-1),2,IF(AND($C21="Milestone",H$7&gt;=$E21,H$7&lt;=$E21+$F21-1),1,""))</f>
@@ -21748,13 +21748,13 @@
       </c>
       <c r="E22" s="69">
         <f ca="1">E17+1</f>
-        <v>44306</v>
+        <v>44290</v>
       </c>
       <c r="F22" s="70">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G22" s="103" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H22" s="29" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -21995,12 +21995,12 @@
       </c>
       <c r="E23" s="69">
         <f ca="1">E17+1</f>
-        <v>44306</v>
+        <v>44290</v>
       </c>
       <c r="F23" s="70">
-        <v>5</v>
-      </c>
-      <c r="G23" s="160" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="143" t="s">
         <v>63</v>
       </c>
       <c r="H23" s="29" t="str">
@@ -22242,13 +22242,13 @@
       </c>
       <c r="E24" s="69">
         <f ca="1">E17+2</f>
-        <v>44307</v>
+        <v>44291</v>
       </c>
       <c r="F24" s="70">
-        <v>4</v>
-      </c>
-      <c r="G24" s="160" t="s">
-        <v>64</v>
+        <v>7</v>
+      </c>
+      <c r="G24" s="143" t="s">
+        <v>57</v>
       </c>
       <c r="H24" s="29" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -22489,13 +22489,13 @@
       </c>
       <c r="E25" s="69">
         <f ca="1">E17+5</f>
-        <v>44310</v>
+        <v>44294</v>
       </c>
       <c r="F25" s="70">
-        <v>2</v>
-      </c>
-      <c r="G25" s="161" t="s">
-        <v>62</v>
+        <v>7</v>
+      </c>
+      <c r="G25" s="144" t="s">
+        <v>64</v>
       </c>
       <c r="H25" s="29" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -22736,12 +22736,12 @@
       </c>
       <c r="E26" s="69">
         <f ca="1">E17+6</f>
-        <v>44311</v>
+        <v>44295</v>
       </c>
       <c r="F26" s="70">
-        <v>1</v>
-      </c>
-      <c r="G26" s="160" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="143" t="s">
         <v>65</v>
       </c>
       <c r="H26" s="29" t="str">
@@ -23519,15 +23519,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -23544,6 +23535,15 @@
     <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -23568,14 +23568,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39060724-9CA2-4290-8A0C-B53624A594E7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4BA2A8-DB97-40F9-8DB6-154C09C7467C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -23585,4 +23577,12 @@
     <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39060724-9CA2-4290-8A0C-B53624A594E7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>